--- a/data_2021_merged_clean.xlsx
+++ b/data_2021_merged_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Desktop\önkutfel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AFF947-AB8F-4D56-8219-D496C58546CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A974A-F07B-4EBF-96BA-C8A9FE26E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0748D73F-4FFF-4EE5-AF0F-83F09925A358}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="953">
   <si>
     <t>Name</t>
   </si>
@@ -2881,6 +2881,18 @@
   </si>
   <si>
     <t>TRAUB SÁNDOR</t>
+  </si>
+  <si>
+    <t>Matek eredmény</t>
+  </si>
+  <si>
+    <t>Kognitív eredmény</t>
+  </si>
+  <si>
+    <t>Matek helyes</t>
+  </si>
+  <si>
+    <t>Kognitív pont</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2929,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2940,17 +2952,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3266,15 +3292,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1851CE7A-FE44-4B1C-8C67-D957BE878265}">
-  <dimension ref="A1:Q222"/>
+  <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T149" sqref="T149"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,8 +3356,20 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3379,8 +3421,23 @@
       <c r="Q2">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <f>$L2-$R2</f>
+        <v>42.93</v>
+      </c>
+      <c r="T2">
+        <f>$R2/14</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U2">
+        <f>$S2/61</f>
+        <v>0.70377049180327866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3432,8 +3489,23 @@
       <c r="Q3">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="0">$L3-$R3</f>
+        <v>38.25</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="1">$R3/14</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="2">$S3/61</f>
+        <v>0.62704918032786883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3485,8 +3557,23 @@
       <c r="Q4">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>39.08</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.64065573770491802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3538,8 +3625,23 @@
       <c r="Q5">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>40.33</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.66114754098360651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3591,8 +3693,23 @@
       <c r="Q6">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>40.19</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.65885245901639344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3644,8 +3761,23 @@
       <c r="Q7">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>41.83</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.68573770491803276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -3697,8 +3829,23 @@
       <c r="Q8">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>39.83</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.65295081967213109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3750,8 +3897,23 @@
       <c r="Q9">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.60655737704918034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3803,8 +3965,23 @@
       <c r="Q10">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>33.83</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.55459016393442617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -3856,8 +4033,23 @@
       <c r="Q11">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>34.659999999999997</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0.56819672131147536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -3909,8 +4101,23 @@
       <c r="Q12">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>37.25</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.61065573770491799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -3962,8 +4169,23 @@
       <c r="Q13">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.57377049180327866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -4015,8 +4237,23 @@
       <c r="Q14">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>37.67</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.6175409836065574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -4068,8 +4305,23 @@
       <c r="Q15">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>32.5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.53278688524590168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -4121,8 +4373,23 @@
       <c r="Q16">
         <v>73.099999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0.5901639344262295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4174,8 +4441,23 @@
       <c r="Q17">
         <v>104.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0.63786885245901637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -4227,8 +4509,23 @@
       <c r="Q18">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>35.68</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>0.58491803278688526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -4280,8 +4577,23 @@
       <c r="Q19">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>36.93</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.60540983606557375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -4333,8 +4645,23 @@
       <c r="Q20">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0.61475409836065575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -4386,8 +4713,23 @@
       <c r="Q21">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>35.409999999999997</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.58049180327868843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4439,8 +4781,23 @@
       <c r="Q22">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>37.33</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>0.6119672131147541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4492,8 +4849,23 @@
       <c r="Q23">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>29.18</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0.47836065573770492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -4545,8 +4917,23 @@
       <c r="Q24">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>33.1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0.54262295081967216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -4598,8 +4985,23 @@
       <c r="Q25">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>11</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>32.020000000000003</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0.52491803278688531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -4651,8 +5053,23 @@
       <c r="Q26">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>32.770000000000003</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0.53721311475409839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -4704,8 +5121,23 @@
       <c r="Q27">
         <v>57.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>12</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -4757,8 +5189,23 @@
       <c r="Q28">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>12</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>29.939999999999998</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0.49081967213114752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -4810,8 +5257,23 @@
       <c r="Q29">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0.52327868852459014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -4863,8 +5325,23 @@
       <c r="Q30">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>31.33</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0.51360655737704919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -4916,8 +5393,23 @@
       <c r="Q31">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>0.52868852459016391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -4969,8 +5461,23 @@
       <c r="Q32">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>31.090000000000003</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0.50967213114754106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -5022,8 +5529,23 @@
       <c r="Q33">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>9</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>31.939999999999998</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0.5236065573770492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -5075,8 +5597,23 @@
       <c r="Q34">
         <v>79.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>31.6</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0.5180327868852459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -5128,8 +5665,23 @@
       <c r="Q35">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>31.58</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="2"/>
+        <v>0.51770491803278684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -5181,8 +5733,23 @@
       <c r="Q36">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>32.409999999999997</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="2"/>
+        <v>0.53131147540983603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -5234,8 +5801,23 @@
       <c r="Q37">
         <v>82.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>11</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>29.35</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>0.48114754098360657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -5287,8 +5869,23 @@
       <c r="Q38">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="2"/>
+        <v>0.47950819672131145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -5340,8 +5937,23 @@
       <c r="Q39">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>0.59278688524590162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -5393,8 +6005,23 @@
       <c r="Q40">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>11</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>29.08</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="2"/>
+        <v>0.4767213114754098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -5446,8 +6073,23 @@
       <c r="Q41">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>32.58</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="2"/>
+        <v>0.53409836065573768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -5499,8 +6141,23 @@
       <c r="Q42">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>28.58</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0.46852459016393438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -5552,8 +6209,23 @@
       <c r="Q43">
         <v>54.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>33.43</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>0.54803278688524593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -5605,8 +6277,23 @@
       <c r="Q44">
         <v>68.599999999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>5</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>34.08</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>0.55868852459016394</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -5658,8 +6345,23 @@
       <c r="Q45">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>9</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>29.92</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>0.49049180327868858</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -5711,8 +6413,23 @@
       <c r="Q46">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>6</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>32.83</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>0.53819672131147533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -5764,8 +6481,23 @@
       <c r="Q47">
         <v>86.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>33.75</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>0.55327868852459017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -5817,8 +6549,23 @@
       <c r="Q48">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>29.75</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>0.48770491803278687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5870,8 +6617,23 @@
       <c r="Q49">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>4</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>34.58</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0.56688524590163936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>259</v>
       </c>
@@ -5923,8 +6685,23 @@
       <c r="Q50">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>9</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>29.520000000000003</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>0.48393442622950827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>263</v>
       </c>
@@ -5976,8 +6753,23 @@
       <c r="Q51">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>28.270000000000003</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>0.46344262295081973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -6029,8 +6821,23 @@
       <c r="Q52">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>7</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>0.51229508196721307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -6082,8 +6889,23 @@
       <c r="Q53">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>7</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>31.17</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>0.51098360655737707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -6135,8 +6957,23 @@
       <c r="Q54">
         <v>64.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>7</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>0.50819672131147542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -6188,8 +7025,23 @@
       <c r="Q55">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>7</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>0.50819672131147542</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -6241,8 +7093,23 @@
       <c r="Q56">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>6</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>31.909999999999997</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>0.52311475409836061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -6294,8 +7161,23 @@
       <c r="Q57">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>289</v>
       </c>
@@ -6347,8 +7229,23 @@
       <c r="Q58">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>26.909999999999997</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>0.44114754098360648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>294</v>
       </c>
@@ -6400,8 +7297,23 @@
       <c r="Q59">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>8</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>28.909999999999997</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>0.47393442622950815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -6453,8 +7365,23 @@
       <c r="Q60">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>12</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>24.08</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>0.39475409836065573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>301</v>
       </c>
@@ -6506,8 +7433,23 @@
       <c r="Q61">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>0.49180327868852458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>305</v>
       </c>
@@ -6559,8 +7501,23 @@
       <c r="Q62">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>7</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>28.68</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>0.4701639344262295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>310</v>
       </c>
@@ -6612,8 +7569,23 @@
       <c r="Q63">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>5</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>30.659999999999997</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>0.50262295081967212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>315</v>
       </c>
@@ -6665,8 +7637,23 @@
       <c r="Q64">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>11</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>24.409999999999997</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
+        <v>0.40016393442622944</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -6718,8 +7705,23 @@
       <c r="Q65">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>29.35</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="2"/>
+        <v>0.48114754098360657</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>322</v>
       </c>
@@ -6771,8 +7773,23 @@
       <c r="Q66">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>27.18</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>0.4455737704918033</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -6824,8 +7841,23 @@
       <c r="Q67">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>8</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:S130" si="3">$L67-$R67</f>
+        <v>27.17</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="4">$R67/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="5">$S67/61</f>
+        <v>0.44540983606557377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>331</v>
       </c>
@@ -6877,8 +7909,23 @@
       <c r="Q68">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="3"/>
+        <v>31.1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="5"/>
+        <v>0.50983606557377048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -6930,8 +7977,23 @@
       <c r="Q69">
         <v>44.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>10</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="3"/>
+        <v>24.83</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>0.4070491803278688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>341</v>
       </c>
@@ -6983,8 +8045,23 @@
       <c r="Q70">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="3"/>
+        <v>27.68</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="5"/>
+        <v>0.45377049180327866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>346</v>
       </c>
@@ -7036,8 +8113,23 @@
       <c r="Q71">
         <v>45.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="3"/>
+        <v>27.6</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="5"/>
+        <v>0.45245901639344266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>350</v>
       </c>
@@ -7089,8 +8181,23 @@
       <c r="Q72">
         <v>44.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>7</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="3"/>
+        <v>27.42</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="5"/>
+        <v>0.44950819672131148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>354</v>
       </c>
@@ -7142,8 +8249,23 @@
       <c r="Q73">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>8</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="3"/>
+        <v>26.18</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="5"/>
+        <v>0.42918032786885246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>360</v>
       </c>
@@ -7195,8 +8317,23 @@
       <c r="Q74">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>8</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="3"/>
+        <v>26.159999999999997</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="5"/>
+        <v>0.42885245901639341</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>365</v>
       </c>
@@ -7248,8 +8385,23 @@
       <c r="Q75">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="3"/>
+        <v>28.009999999999998</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="5"/>
+        <v>0.45918032786885243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>370</v>
       </c>
@@ -7301,8 +8453,23 @@
       <c r="Q76">
         <v>49.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="5"/>
+        <v>0.45901639344262296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>374</v>
       </c>
@@ -7354,8 +8521,23 @@
       <c r="Q77">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="3"/>
+        <v>28.83</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="5"/>
+        <v>0.47262295081967209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -7407,8 +8589,23 @@
       <c r="Q78">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>10</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="3"/>
+        <v>23.58</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="5"/>
+        <v>0.38655737704918031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>383</v>
       </c>
@@ -7460,8 +8657,23 @@
       <c r="Q79">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>10</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="3"/>
+        <v>23.58</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="5"/>
+        <v>0.38655737704918031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>388</v>
       </c>
@@ -7513,8 +8725,23 @@
       <c r="Q80">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="3"/>
+        <v>27.409999999999997</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="5"/>
+        <v>0.4493442622950819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>394</v>
       </c>
@@ -7566,8 +8793,23 @@
       <c r="Q81">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>9</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="3"/>
+        <v>24.189999999999998</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="5"/>
+        <v>0.39655737704918032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>397</v>
       </c>
@@ -7619,8 +8861,23 @@
       <c r="Q82">
         <v>41.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="5"/>
+        <v>0.49180327868852458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>401</v>
       </c>
@@ -7672,8 +8929,23 @@
       <c r="Q83">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>6</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="3"/>
+        <v>26.92</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="5"/>
+        <v>0.44131147540983612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>406</v>
       </c>
@@ -7725,8 +8997,23 @@
       <c r="Q84">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="3"/>
+        <v>27.590000000000003</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="5"/>
+        <v>0.45229508196721319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>410</v>
       </c>
@@ -7778,8 +9065,23 @@
       <c r="Q85">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>6</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="3"/>
+        <v>26.42</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="5"/>
+        <v>0.4331147540983607</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>413</v>
       </c>
@@ -7831,8 +9133,23 @@
       <c r="Q86">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>7</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="3"/>
+        <v>25.35</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="5"/>
+        <v>0.41557377049180333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>418</v>
       </c>
@@ -7884,8 +9201,23 @@
       <c r="Q87">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>12</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="3"/>
+        <v>20.159999999999997</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="5"/>
+        <v>0.33049180327868849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>423</v>
       </c>
@@ -7937,8 +9269,23 @@
       <c r="Q88">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>9</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="3"/>
+        <v>23.1</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="5"/>
+        <v>0.37868852459016394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>427</v>
       </c>
@@ -7990,8 +9337,23 @@
       <c r="Q89">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>10</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="3"/>
+        <v>21.92</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="5"/>
+        <v>0.35934426229508198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>432</v>
       </c>
@@ -8043,8 +9405,23 @@
       <c r="Q90">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="5"/>
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>437</v>
       </c>
@@ -8096,8 +9473,23 @@
       <c r="Q91">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>9</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="3"/>
+        <v>22.34</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="5"/>
+        <v>0.36622950819672129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>440</v>
       </c>
@@ -8149,8 +9541,23 @@
       <c r="Q92">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>7</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="3"/>
+        <v>24.33</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="5"/>
+        <v>0.39885245901639343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>443</v>
       </c>
@@ -8202,8 +9609,23 @@
       <c r="Q93">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>11</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="3"/>
+        <v>20.27</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="4"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="5"/>
+        <v>0.33229508196721314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>448</v>
       </c>
@@ -8255,8 +9677,23 @@
       <c r="Q94">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>4</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="3"/>
+        <v>27.16</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="5"/>
+        <v>0.44524590163934424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>452</v>
       </c>
@@ -8308,8 +9745,23 @@
       <c r="Q95">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>7</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="3"/>
+        <v>24.08</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="5"/>
+        <v>0.39475409836065573</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>457</v>
       </c>
@@ -8361,8 +9813,23 @@
       <c r="Q96">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="5"/>
+        <v>0.39344262295081966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>462</v>
       </c>
@@ -8414,8 +9881,23 @@
       <c r="Q97">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>6</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="3"/>
+        <v>24.91</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="5"/>
+        <v>0.40836065573770491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>467</v>
       </c>
@@ -8467,8 +9949,23 @@
       <c r="Q98">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>7</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="3"/>
+        <v>23.76</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="5"/>
+        <v>0.38950819672131148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>471</v>
       </c>
@@ -8520,8 +10017,23 @@
       <c r="Q99">
         <v>81.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>8</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="3"/>
+        <v>22.6</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="5"/>
+        <v>0.37049180327868853</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>475</v>
       </c>
@@ -8573,8 +10085,23 @@
       <c r="Q100">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>8</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="3"/>
+        <v>22.42</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="5"/>
+        <v>0.3675409836065574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>479</v>
       </c>
@@ -8626,8 +10153,23 @@
       <c r="Q101">
         <v>41.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>6</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="3"/>
+        <v>24.41</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="5"/>
+        <v>0.4001639344262295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>484</v>
       </c>
@@ -8679,8 +10221,23 @@
       <c r="Q102">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="3"/>
+        <v>25.26</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="5"/>
+        <v>0.41409836065573774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>489</v>
       </c>
@@ -8732,8 +10289,23 @@
       <c r="Q103">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="3"/>
+        <v>25.2</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="5"/>
+        <v>0.41311475409836063</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>493</v>
       </c>
@@ -8785,8 +10357,23 @@
       <c r="Q104">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="3"/>
+        <v>27.08</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="5"/>
+        <v>0.44393442622950818</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>498</v>
       </c>
@@ -8838,8 +10425,23 @@
       <c r="Q105">
         <v>106.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>10</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="3"/>
+        <v>20.03</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="5"/>
+        <v>0.32836065573770495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>503</v>
       </c>
@@ -8891,8 +10493,23 @@
       <c r="Q106">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="5"/>
+        <v>0.4098360655737705</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>507</v>
       </c>
@@ -8944,8 +10561,23 @@
       <c r="Q107">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>7</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="3"/>
+        <v>22.85</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="5"/>
+        <v>0.37459016393442623</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>511</v>
       </c>
@@ -8997,8 +10629,23 @@
       <c r="Q108">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <v>9</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="3"/>
+        <v>20.75</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="5"/>
+        <v>0.3401639344262295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>515</v>
       </c>
@@ -9050,8 +10697,23 @@
       <c r="Q109">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="3"/>
+        <v>24.5</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="5"/>
+        <v>0.40163934426229508</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>520</v>
       </c>
@@ -9103,8 +10765,23 @@
       <c r="Q110">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="3"/>
+        <v>23.43</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="5"/>
+        <v>0.38409836065573771</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>523</v>
       </c>
@@ -9156,8 +10833,23 @@
       <c r="Q111">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>11</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="3"/>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="4"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="5"/>
+        <v>0.30081967213114758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>529</v>
       </c>
@@ -9209,8 +10901,23 @@
       <c r="Q112">
         <v>58.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>5</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="3"/>
+        <v>24.35</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="5"/>
+        <v>0.39918032786885249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>533</v>
       </c>
@@ -9262,8 +10969,23 @@
       <c r="Q113">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>8</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="3"/>
+        <v>21.25</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="5"/>
+        <v>0.34836065573770492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>538</v>
       </c>
@@ -9315,8 +11037,23 @@
       <c r="Q114">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="3"/>
+        <v>26.08</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="5"/>
+        <v>0.42754098360655735</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>542</v>
       </c>
@@ -9368,8 +11105,23 @@
       <c r="Q115">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>6</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="5"/>
+        <v>0.37704918032786883</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>546</v>
       </c>
@@ -9421,8 +11173,23 @@
       <c r="Q116">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <v>7</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="3"/>
+        <v>21.93</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="5"/>
+        <v>0.35950819672131146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>550</v>
       </c>
@@ -9474,8 +11241,23 @@
       <c r="Q117">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="3"/>
+        <v>23.33</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="5"/>
+        <v>0.3824590163934426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>555</v>
       </c>
@@ -9527,8 +11309,23 @@
       <c r="Q118">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <v>6</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="3"/>
+        <v>21.92</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="5"/>
+        <v>0.35934426229508198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>557</v>
       </c>
@@ -9580,8 +11377,23 @@
       <c r="Q119">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <v>7</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="3"/>
+        <v>20.92</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="5"/>
+        <v>0.3429508196721312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>560</v>
       </c>
@@ -9633,8 +11445,23 @@
       <c r="Q120">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="3"/>
+        <v>20.91</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="5"/>
+        <v>0.34278688524590162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>565</v>
       </c>
@@ -9686,8 +11513,23 @@
       <c r="Q121">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="3"/>
+        <v>25.85</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="5"/>
+        <v>0.42377049180327869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>569</v>
       </c>
@@ -9739,8 +11581,23 @@
       <c r="Q122">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="3"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="5"/>
+        <v>0.32950819672131149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>574</v>
       </c>
@@ -9792,8 +11649,23 @@
       <c r="Q123">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="3"/>
+        <v>21.76</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="5"/>
+        <v>0.35672131147540986</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>578</v>
       </c>
@@ -9845,8 +11717,23 @@
       <c r="Q124">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>7</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="3"/>
+        <v>19.170000000000002</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="5"/>
+        <v>0.31426229508196724</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>582</v>
       </c>
@@ -9898,8 +11785,23 @@
       <c r="Q125">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="3"/>
+        <v>22.75</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="5"/>
+        <v>0.37295081967213117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>587</v>
       </c>
@@ -9951,8 +11853,23 @@
       <c r="Q126">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>4</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="3"/>
+        <v>21.43</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="5"/>
+        <v>0.35131147540983604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>592</v>
       </c>
@@ -10004,8 +11921,23 @@
       <c r="Q127">
         <v>43</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="3"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="5"/>
+        <v>0.29639344262295081</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>596</v>
       </c>
@@ -10057,8 +11989,23 @@
       <c r="Q128">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>7</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="3"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="5"/>
+        <v>0.29639344262295081</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>600</v>
       </c>
@@ -10110,8 +12057,23 @@
       <c r="Q129">
         <v>66</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="3"/>
+        <v>19.010000000000002</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="5"/>
+        <v>0.31163934426229511</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>604</v>
       </c>
@@ -10163,8 +12125,23 @@
       <c r="Q130">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <v>10</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="3"/>
+        <v>14.260000000000002</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="5"/>
+        <v>0.23377049180327872</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>609</v>
       </c>
@@ -10216,8 +12193,23 @@
       <c r="Q131">
         <v>62</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131">
+        <f t="shared" ref="S131:S194" si="6">$L131-$R131</f>
+        <v>21.26</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="7">$R131/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="8">$S131/61</f>
+        <v>0.34852459016393444</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>613</v>
       </c>
@@ -10269,8 +12261,23 @@
       <c r="Q132">
         <v>61</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="6"/>
+        <v>21.17</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="8"/>
+        <v>0.34704918032786886</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>619</v>
       </c>
@@ -10322,8 +12329,23 @@
       <c r="Q133">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <v>10</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="6"/>
+        <v>14.16</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="8"/>
+        <v>0.2321311475409836</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>624</v>
       </c>
@@ -10375,8 +12397,23 @@
       <c r="Q134">
         <v>56.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="6"/>
+        <v>19.91</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="8"/>
+        <v>0.32639344262295084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>627</v>
       </c>
@@ -10428,8 +12465,23 @@
       <c r="Q135">
         <v>64.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <v>7</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="6"/>
+        <v>16.66</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="8"/>
+        <v>0.27311475409836067</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>631</v>
       </c>
@@ -10481,8 +12533,23 @@
       <c r="Q136">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="6"/>
+        <v>19.47</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="8"/>
+        <v>0.31918032786885242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>635</v>
       </c>
@@ -10534,8 +12601,23 @@
       <c r="Q137">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="6"/>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="8"/>
+        <v>0.26508196721311478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>639</v>
       </c>
@@ -10587,8 +12669,23 @@
       <c r="Q138">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <v>7</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="6"/>
+        <v>14.5</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="8"/>
+        <v>0.23770491803278687</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>644</v>
       </c>
@@ -10640,8 +12737,23 @@
       <c r="Q139">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="6"/>
+        <v>15.420000000000002</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="8"/>
+        <v>0.25278688524590165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>647</v>
       </c>
@@ -10693,8 +12805,23 @@
       <c r="Q140">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <v>8</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="6"/>
+        <v>13.190000000000001</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="8"/>
+        <v>0.21622950819672132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>651</v>
       </c>
@@ -10746,8 +12873,23 @@
       <c r="Q141">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <v>7</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="6"/>
+        <v>14.16</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="8"/>
+        <v>0.2321311475409836</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>653</v>
       </c>
@@ -10799,8 +12941,23 @@
       <c r="Q142">
         <v>60.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <v>9</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="6"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="8"/>
+        <v>0.19016393442622953</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>656</v>
       </c>
@@ -10852,8 +13009,23 @@
       <c r="Q143">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="6"/>
+        <v>14.579999999999998</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="8"/>
+        <v>0.23901639344262293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>660</v>
       </c>
@@ -10905,8 +13077,23 @@
       <c r="Q144">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="6"/>
+        <v>16.760000000000002</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="8"/>
+        <v>0.27475409836065579</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>665</v>
       </c>
@@ -10958,8 +13145,23 @@
       <c r="Q145">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="6"/>
+        <v>14.329999999999998</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="7"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="8"/>
+        <v>0.23491803278688522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>669</v>
       </c>
@@ -11011,8 +13213,23 @@
       <c r="Q146">
         <v>76</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <v>6</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="6"/>
+        <v>13.100000000000001</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="8"/>
+        <v>0.21475409836065576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>673</v>
       </c>
@@ -11064,8 +13281,23 @@
       <c r="Q147">
         <v>91.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>6</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="6"/>
+        <v>12.18</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="8"/>
+        <v>0.19967213114754098</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>677</v>
       </c>
@@ -11117,8 +13349,23 @@
       <c r="Q148">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="6"/>
+        <v>16.329999999999998</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="7"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="8"/>
+        <v>0.26770491803278684</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>682</v>
       </c>
@@ -11170,8 +13417,23 @@
       <c r="Q149">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>8</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="6"/>
+        <v>8.3299999999999983</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="8"/>
+        <v>0.13655737704918031</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>687</v>
       </c>
@@ -11223,8 +13485,23 @@
       <c r="Q150">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="6"/>
+        <v>13.83</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="8"/>
+        <v>0.22672131147540983</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>692</v>
       </c>
@@ -11276,8 +13553,23 @@
       <c r="Q151">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>5</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="6"/>
+        <v>6.33</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="7"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="8"/>
+        <v>0.10377049180327869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>696</v>
       </c>
@@ -11329,8 +13621,23 @@
       <c r="Q152">
         <v>36.299999999999997</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>10</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>879</v>
       </c>
@@ -11382,8 +13689,23 @@
       <c r="Q153">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>14</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="6"/>
+        <v>41.92</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="8"/>
+        <v>0.68721311475409841</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>880</v>
       </c>
@@ -11435,8 +13757,23 @@
       <c r="Q154">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>13</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="6"/>
+        <v>42.92</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="8"/>
+        <v>0.70360655737704925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>881</v>
       </c>
@@ -11488,8 +13825,23 @@
       <c r="Q155">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>12</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="6"/>
+        <v>40.75</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="8"/>
+        <v>0.66803278688524592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>882</v>
       </c>
@@ -11541,8 +13893,23 @@
       <c r="Q156">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>14</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="6"/>
+        <v>36.33</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="8"/>
+        <v>0.59557377049180327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>883</v>
       </c>
@@ -11594,8 +13961,23 @@
       <c r="Q157">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>13</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="6"/>
+        <v>35.42</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="8"/>
+        <v>0.58065573770491807</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>884</v>
       </c>
@@ -11647,8 +14029,23 @@
       <c r="Q158">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>13</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="6"/>
+        <v>34.25</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="8"/>
+        <v>0.56147540983606559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>885</v>
       </c>
@@ -11700,8 +14097,23 @@
       <c r="Q159">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>12</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="6"/>
+        <v>34.33</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="8"/>
+        <v>0.56278688524590159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>886</v>
       </c>
@@ -11753,8 +14165,23 @@
       <c r="Q160">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>12</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="6"/>
+        <v>34.25</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="8"/>
+        <v>0.56147540983606559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>887</v>
       </c>
@@ -11806,8 +14233,23 @@
       <c r="Q161">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="6"/>
+        <v>36.17</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="8"/>
+        <v>0.59295081967213115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>888</v>
       </c>
@@ -11859,8 +14301,23 @@
       <c r="Q162">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>9</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="6"/>
+        <v>35.25</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="8"/>
+        <v>0.57786885245901642</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>889</v>
       </c>
@@ -11912,8 +14369,23 @@
       <c r="Q163">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>9</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="8"/>
+        <v>0.57377049180327866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>890</v>
       </c>
@@ -11965,8 +14437,23 @@
       <c r="Q164">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>9</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="6"/>
+        <v>34.08</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="8"/>
+        <v>0.55868852459016394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>891</v>
       </c>
@@ -12018,8 +14505,23 @@
       <c r="Q165">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>11</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="6"/>
+        <v>31.92</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="8"/>
+        <v>0.52327868852459014</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>892</v>
       </c>
@@ -12071,8 +14573,23 @@
       <c r="Q166">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>12</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="6"/>
+        <v>30.75</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="8"/>
+        <v>0.50409836065573765</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>893</v>
       </c>
@@ -12124,8 +14641,23 @@
       <c r="Q167">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>13</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="6"/>
+        <v>29.340000000000003</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="8"/>
+        <v>0.4809836065573771</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>894</v>
       </c>
@@ -12177,8 +14709,23 @@
       <c r="Q168">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>12</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="6"/>
+        <v>29.340000000000003</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="8"/>
+        <v>0.4809836065573771</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>895</v>
       </c>
@@ -12230,8 +14777,23 @@
       <c r="Q169">
         <v>77.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>11</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="6"/>
+        <v>30.159999999999997</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="8"/>
+        <v>0.49442622950819665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>896</v>
       </c>
@@ -12283,8 +14845,23 @@
       <c r="Q170">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>6</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="6"/>
+        <v>35.159999999999997</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="8"/>
+        <v>0.57639344262295078</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>897</v>
       </c>
@@ -12336,8 +14913,23 @@
       <c r="Q171">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>9</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="6"/>
+        <v>31.83</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="8"/>
+        <v>0.52180327868852461</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>898</v>
       </c>
@@ -12389,8 +14981,23 @@
       <c r="Q172">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>9</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="6"/>
+        <v>31.75</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="8"/>
+        <v>0.52049180327868849</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>899</v>
       </c>
@@ -12442,8 +15049,23 @@
       <c r="Q173">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>10</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="6"/>
+        <v>30.409999999999997</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="8"/>
+        <v>0.49852459016393436</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>900</v>
       </c>
@@ -12495,8 +15117,23 @@
       <c r="Q174">
         <v>63.8</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>12</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="6"/>
+        <v>27.93</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="8"/>
+        <v>0.45786885245901637</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>901</v>
       </c>
@@ -12548,8 +15185,23 @@
       <c r="Q175">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R175">
+        <v>9</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="6"/>
+        <v>30.75</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="8"/>
+        <v>0.50409836065573765</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>902</v>
       </c>
@@ -12601,8 +15253,23 @@
       <c r="Q176">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R176">
+        <v>8</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="6"/>
+        <v>31.659999999999997</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="8"/>
+        <v>0.51901639344262285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>903</v>
       </c>
@@ -12654,8 +15321,23 @@
       <c r="Q177">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R177">
+        <v>13</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="6"/>
+        <v>26.5</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="8"/>
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>904</v>
       </c>
@@ -12707,8 +15389,23 @@
       <c r="Q178">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R178">
+        <v>7</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="6"/>
+        <v>31.67</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="8"/>
+        <v>0.51918032786885249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>905</v>
       </c>
@@ -12760,8 +15457,23 @@
       <c r="Q179">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R179">
+        <v>13</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="6"/>
+        <v>25.659999999999997</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="8"/>
+        <v>0.42065573770491799</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>906</v>
       </c>
@@ -12813,8 +15525,23 @@
       <c r="Q180">
         <v>73.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R180">
+        <v>10</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="6"/>
+        <v>28.43</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="8"/>
+        <v>0.46606557377049179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>907</v>
       </c>
@@ -12866,8 +15593,23 @@
       <c r="Q181">
         <v>54.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R181">
+        <v>11</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="6"/>
+        <v>27.42</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="8"/>
+        <v>0.44950819672131148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>908</v>
       </c>
@@ -12919,8 +15661,23 @@
       <c r="Q182">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R182">
+        <v>11</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="6"/>
+        <v>27.270000000000003</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="8"/>
+        <v>0.44704918032786889</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>909</v>
       </c>
@@ -12972,8 +15729,23 @@
       <c r="Q183">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R183">
+        <v>8</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="6"/>
+        <v>29.509999999999998</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="8"/>
+        <v>0.48377049180327863</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>910</v>
       </c>
@@ -13025,8 +15797,23 @@
       <c r="Q184">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R184">
+        <v>11</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="6"/>
+        <v>26.5</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="8"/>
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>911</v>
       </c>
@@ -13078,8 +15865,23 @@
       <c r="Q185">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>11</v>
+      </c>
+      <c r="S185">
+        <f t="shared" si="6"/>
+        <v>26.1</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="8"/>
+        <v>0.4278688524590164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>912</v>
       </c>
@@ -13131,8 +15933,23 @@
       <c r="Q186">
         <v>47</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>10</v>
+      </c>
+      <c r="S186">
+        <f t="shared" si="6"/>
+        <v>26.75</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="8"/>
+        <v>0.43852459016393441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>913</v>
       </c>
@@ -13184,8 +16001,23 @@
       <c r="Q187">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>9</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="6"/>
+        <v>27.58</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="8"/>
+        <v>0.4521311475409836</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>914</v>
       </c>
@@ -13237,8 +16069,23 @@
       <c r="Q188">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R188">
+        <v>11</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="6"/>
+        <v>25.58</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="8"/>
+        <v>0.41934426229508193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>915</v>
       </c>
@@ -13290,8 +16137,23 @@
       <c r="Q189">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R189">
+        <v>11</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U189">
+        <f t="shared" si="8"/>
+        <v>0.41803278688524592</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>916</v>
       </c>
@@ -13343,8 +16205,23 @@
       <c r="Q190">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R190">
+        <v>12</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="8"/>
+        <v>0.39344262295081966</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>917</v>
       </c>
@@ -13396,8 +16273,23 @@
       <c r="Q191">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>9</v>
+      </c>
+      <c r="S191">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U191">
+        <f t="shared" si="8"/>
+        <v>0.44262295081967212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>918</v>
       </c>
@@ -13449,8 +16341,23 @@
       <c r="Q192">
         <v>62.2</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R192">
+        <v>9</v>
+      </c>
+      <c r="S192">
+        <f t="shared" si="6"/>
+        <v>26.939999999999998</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="8"/>
+        <v>0.44163934426229506</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>919</v>
       </c>
@@ -13502,8 +16409,23 @@
       <c r="Q193">
         <v>51.1</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R193">
+        <v>8</v>
+      </c>
+      <c r="S193">
+        <f t="shared" si="6"/>
+        <v>26.83</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U193">
+        <f t="shared" si="8"/>
+        <v>0.43983606557377047</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>920</v>
       </c>
@@ -13555,8 +16477,23 @@
       <c r="Q194">
         <v>41</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R194">
+        <v>9</v>
+      </c>
+      <c r="S194">
+        <f t="shared" si="6"/>
+        <v>25.42</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U194">
+        <f t="shared" si="8"/>
+        <v>0.41672131147540986</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>921</v>
       </c>
@@ -13608,8 +16545,23 @@
       <c r="Q195">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R195">
+        <v>11</v>
+      </c>
+      <c r="S195">
+        <f t="shared" ref="S195:S222" si="9">$L195-$R195</f>
+        <v>23.33</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T222" si="10">$R195/14</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195:U222" si="11">$S195/61</f>
+        <v>0.3824590163934426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>922</v>
       </c>
@@ -13661,8 +16613,23 @@
       <c r="Q196">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R196">
+        <v>8</v>
+      </c>
+      <c r="S196">
+        <f t="shared" si="9"/>
+        <v>26.18</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="11"/>
+        <v>0.42918032786885246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>923</v>
       </c>
@@ -13714,8 +16681,23 @@
       <c r="Q197">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R197">
+        <v>8</v>
+      </c>
+      <c r="S197">
+        <f t="shared" si="9"/>
+        <v>25.68</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="11"/>
+        <v>0.42098360655737704</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>924</v>
       </c>
@@ -13767,8 +16749,23 @@
       <c r="Q198">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R198">
+        <v>11</v>
+      </c>
+      <c r="S198">
+        <f t="shared" si="9"/>
+        <v>22.67</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="10"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="11"/>
+        <v>0.37163934426229511</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>925</v>
       </c>
@@ -13820,8 +16817,23 @@
       <c r="Q199">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R199">
+        <v>7</v>
+      </c>
+      <c r="S199">
+        <f t="shared" si="9"/>
+        <v>26.659999999999997</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="11"/>
+        <v>0.43704918032786877</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>926</v>
       </c>
@@ -13873,8 +16885,23 @@
       <c r="Q200">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R200">
+        <v>4</v>
+      </c>
+      <c r="S200">
+        <f t="shared" si="9"/>
+        <v>28.83</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="10"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="11"/>
+        <v>0.47262295081967209</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>927</v>
       </c>
@@ -13926,8 +16953,23 @@
       <c r="Q201">
         <v>67.7</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R201">
+        <v>6</v>
+      </c>
+      <c r="S201">
+        <f t="shared" si="9"/>
+        <v>26.259999999999998</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="11"/>
+        <v>0.43049180327868847</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>928</v>
       </c>
@@ -13979,8 +17021,23 @@
       <c r="Q202">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R202">
+        <v>8</v>
+      </c>
+      <c r="S202">
+        <f t="shared" si="9"/>
+        <v>24.159999999999997</v>
+      </c>
+      <c r="T202">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="11"/>
+        <v>0.39606557377049173</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>929</v>
       </c>
@@ -14032,8 +17089,23 @@
       <c r="Q203">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R203">
+        <v>9</v>
+      </c>
+      <c r="S203">
+        <f t="shared" si="9"/>
+        <v>23.009999999999998</v>
+      </c>
+      <c r="T203">
+        <f t="shared" si="10"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="11"/>
+        <v>0.37721311475409836</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>930</v>
       </c>
@@ -14085,8 +17157,23 @@
       <c r="Q204">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R204">
+        <v>13</v>
+      </c>
+      <c r="S204">
+        <f t="shared" si="9"/>
+        <v>18.510000000000002</v>
+      </c>
+      <c r="T204">
+        <f t="shared" si="10"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="11"/>
+        <v>0.3034426229508197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>931</v>
       </c>
@@ -14138,8 +17225,23 @@
       <c r="Q205">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R205">
+        <v>9</v>
+      </c>
+      <c r="S205">
+        <f t="shared" si="9"/>
+        <v>21.35</v>
+      </c>
+      <c r="T205">
+        <f t="shared" si="10"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U205">
+        <f t="shared" si="11"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>932</v>
       </c>
@@ -14191,8 +17293,23 @@
       <c r="Q206">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <f t="shared" si="9"/>
+        <v>27.83</v>
+      </c>
+      <c r="T206">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="U206">
+        <f t="shared" si="11"/>
+        <v>0.45622950819672126</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>933</v>
       </c>
@@ -14244,8 +17361,23 @@
       <c r="Q207">
         <v>67.599999999999994</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R207">
+        <v>12</v>
+      </c>
+      <c r="S207">
+        <f t="shared" si="9"/>
+        <v>17.829999999999998</v>
+      </c>
+      <c r="T207">
+        <f t="shared" si="10"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U207">
+        <f t="shared" si="11"/>
+        <v>0.2922950819672131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>934</v>
       </c>
@@ -14297,8 +17429,23 @@
       <c r="Q208">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R208">
+        <v>7</v>
+      </c>
+      <c r="S208">
+        <f t="shared" si="9"/>
+        <v>22.6</v>
+      </c>
+      <c r="T208">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U208">
+        <f t="shared" si="11"/>
+        <v>0.37049180327868853</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>935</v>
       </c>
@@ -14350,8 +17497,23 @@
       <c r="Q209">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R209">
+        <v>7</v>
+      </c>
+      <c r="S209">
+        <f t="shared" si="9"/>
+        <v>22.41</v>
+      </c>
+      <c r="T209">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="11"/>
+        <v>0.36737704918032787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>936</v>
       </c>
@@ -14403,8 +17565,23 @@
       <c r="Q210">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <f t="shared" si="9"/>
+        <v>22.33</v>
+      </c>
+      <c r="T210">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U210">
+        <f t="shared" si="11"/>
+        <v>0.36606557377049176</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>937</v>
       </c>
@@ -14456,8 +17633,23 @@
       <c r="Q211">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R211">
+        <v>10</v>
+      </c>
+      <c r="S211">
+        <f t="shared" si="9"/>
+        <v>19.25</v>
+      </c>
+      <c r="T211">
+        <f t="shared" si="10"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="11"/>
+        <v>0.3155737704918033</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>938</v>
       </c>
@@ -14509,8 +17701,23 @@
       <c r="Q212">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R212">
+        <v>7</v>
+      </c>
+      <c r="S212">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="T212">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U212">
+        <f t="shared" si="11"/>
+        <v>0.36065573770491804</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>939</v>
       </c>
@@ -14562,8 +17769,23 @@
       <c r="Q213">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <f t="shared" si="9"/>
+        <v>26.91</v>
+      </c>
+      <c r="T213">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="U213">
+        <f t="shared" si="11"/>
+        <v>0.44114754098360653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>940</v>
       </c>
@@ -14615,8 +17837,23 @@
       <c r="Q214">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R214">
+        <v>9</v>
+      </c>
+      <c r="S214">
+        <f t="shared" si="9"/>
+        <v>19.5</v>
+      </c>
+      <c r="T214">
+        <f t="shared" si="10"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U214">
+        <f t="shared" si="11"/>
+        <v>0.31967213114754101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>941</v>
       </c>
@@ -14668,8 +17905,23 @@
       <c r="Q215">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R215">
+        <v>5</v>
+      </c>
+      <c r="S215">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="T215">
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U215">
+        <f t="shared" si="11"/>
+        <v>0.37704918032786883</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>942</v>
       </c>
@@ -14721,8 +17973,23 @@
       <c r="Q216">
         <v>35.9</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R216">
+        <v>7</v>
+      </c>
+      <c r="S216">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="T216">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U216">
+        <f t="shared" si="11"/>
+        <v>0.34426229508196721</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>943</v>
       </c>
@@ -14774,8 +18041,23 @@
       <c r="Q217">
         <v>98.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <f t="shared" si="9"/>
+        <v>22.93</v>
+      </c>
+      <c r="T217">
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="U217">
+        <f t="shared" si="11"/>
+        <v>0.37590163934426229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>944</v>
       </c>
@@ -14827,8 +18109,23 @@
       <c r="Q218">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R218">
+        <v>3</v>
+      </c>
+      <c r="S218">
+        <f t="shared" si="9"/>
+        <v>23.66</v>
+      </c>
+      <c r="T218">
+        <f t="shared" si="10"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U218">
+        <f t="shared" si="11"/>
+        <v>0.38786885245901642</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>945</v>
       </c>
@@ -14880,8 +18177,23 @@
       <c r="Q219">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R219">
+        <v>3</v>
+      </c>
+      <c r="S219">
+        <f t="shared" si="9"/>
+        <v>23.6</v>
+      </c>
+      <c r="T219">
+        <f t="shared" si="10"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="U219">
+        <f t="shared" si="11"/>
+        <v>0.38688524590163936</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>946</v>
       </c>
@@ -14933,8 +18245,23 @@
       <c r="Q220">
         <v>31</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
+        <f t="shared" si="9"/>
+        <v>19.75</v>
+      </c>
+      <c r="T220">
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="U220">
+        <f t="shared" si="11"/>
+        <v>0.32377049180327871</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>947</v>
       </c>
@@ -14986,8 +18313,23 @@
       <c r="Q221">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R221">
+        <v>8</v>
+      </c>
+      <c r="S221">
+        <f t="shared" si="9"/>
+        <v>14.66</v>
+      </c>
+      <c r="T221">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="U221">
+        <f t="shared" si="11"/>
+        <v>0.24032786885245902</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>948</v>
       </c>
@@ -15038,6 +18380,21 @@
       </c>
       <c r="Q222">
         <v>35.799999999999997</v>
+      </c>
+      <c r="R222">
+        <v>9</v>
+      </c>
+      <c r="S222">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T222">
+        <f t="shared" si="10"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="U222">
+        <f t="shared" si="11"/>
+        <v>1.6393442622950821E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data_2021_merged_clean.xlsx
+++ b/data_2021_merged_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A974A-F07B-4EBF-96BA-C8A9FE26E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4956F146-13D5-4F6A-9AF5-D6BF7FE937DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0748D73F-4FFF-4EE5-AF0F-83F09925A358}"/>
   </bookViews>
@@ -3295,7 +3295,7 @@
   <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="P222" sqref="P2:P222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data_2021_merged_clean.xlsx
+++ b/data_2021_merged_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4956F146-13D5-4F6A-9AF5-D6BF7FE937DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2D2C6-D2D3-4C19-A876-8DB8645E8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0748D73F-4FFF-4EE5-AF0F-83F09925A358}"/>
   </bookViews>
@@ -2899,6 +2899,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2967,7 +2970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2978,6 +2981,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3295,7 +3299,7 @@
   <dimension ref="A1:U222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P222" sqref="P2:P222"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3419,7 @@
       <c r="O2">
         <v>44</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>0.73199999999999998</v>
       </c>
       <c r="Q2">
@@ -3428,11 +3432,11 @@
         <f>$L2-$R2</f>
         <v>42.93</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <f>$R2/14</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <f>$S2/61</f>
         <v>0.70377049180327866</v>
       </c>
@@ -3483,7 +3487,7 @@
       <c r="O3">
         <v>44</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>0.68300000000000005</v>
       </c>
       <c r="Q3">
@@ -3496,11 +3500,11 @@
         <f t="shared" ref="S3:S66" si="0">$L3-$R3</f>
         <v>38.25</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <f t="shared" ref="T3:T66" si="1">$R3/14</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <f t="shared" ref="U3:U66" si="2">$S3/61</f>
         <v>0.62704918032786883</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="O4">
         <v>44</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>0.68100000000000005</v>
       </c>
       <c r="Q4">
@@ -3564,11 +3568,11 @@
         <f t="shared" si="0"/>
         <v>39.08</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <f t="shared" si="2"/>
         <v>0.64065573770491802</v>
       </c>
@@ -3619,7 +3623,7 @@
       <c r="O5">
         <v>44</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>0.67100000000000004</v>
       </c>
       <c r="Q5">
@@ -3632,11 +3636,11 @@
         <f t="shared" si="0"/>
         <v>40.33</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="4">
         <f t="shared" si="2"/>
         <v>0.66114754098360651</v>
       </c>
@@ -3687,7 +3691,7 @@
       <c r="O6">
         <v>44</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>0.65600000000000003</v>
       </c>
       <c r="Q6">
@@ -3700,11 +3704,11 @@
         <f t="shared" si="0"/>
         <v>40.19</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <f t="shared" si="2"/>
         <v>0.65885245901639344</v>
       </c>
@@ -3755,7 +3759,7 @@
       <c r="O7">
         <v>44</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>0.65100000000000002</v>
       </c>
       <c r="Q7">
@@ -3768,11 +3772,11 @@
         <f t="shared" si="0"/>
         <v>41.83</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <f t="shared" si="2"/>
         <v>0.68573770491803276</v>
       </c>
@@ -3823,7 +3827,7 @@
       <c r="O8">
         <v>44</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>0.65100000000000002</v>
       </c>
       <c r="Q8">
@@ -3836,11 +3840,11 @@
         <f t="shared" si="0"/>
         <v>39.83</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <f t="shared" si="2"/>
         <v>0.65295081967213109</v>
       </c>
@@ -3891,7 +3895,7 @@
       <c r="O9">
         <v>44</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>0.64</v>
       </c>
       <c r="Q9">
@@ -3904,11 +3908,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="4">
         <f t="shared" si="2"/>
         <v>0.60655737704918034</v>
       </c>
@@ -3959,7 +3963,7 @@
       <c r="O10">
         <v>44</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>0.63800000000000001</v>
       </c>
       <c r="Q10">
@@ -3972,11 +3976,11 @@
         <f t="shared" si="0"/>
         <v>33.83</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="4">
         <f t="shared" si="2"/>
         <v>0.55459016393442617</v>
       </c>
@@ -4027,7 +4031,7 @@
       <c r="O11">
         <v>44</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>0.63500000000000001</v>
       </c>
       <c r="Q11">
@@ -4040,11 +4044,11 @@
         <f t="shared" si="0"/>
         <v>34.659999999999997</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="4">
         <f t="shared" si="2"/>
         <v>0.56819672131147536</v>
       </c>
@@ -4095,7 +4099,7 @@
       <c r="O12">
         <v>44</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>0.61699999999999999</v>
       </c>
       <c r="Q12">
@@ -4108,11 +4112,11 @@
         <f t="shared" si="0"/>
         <v>37.25</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="4">
         <f t="shared" si="2"/>
         <v>0.61065573770491799</v>
       </c>
@@ -4163,7 +4167,7 @@
       <c r="O13">
         <v>44</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>0.61299999999999999</v>
       </c>
       <c r="Q13">
@@ -4176,11 +4180,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="4">
         <f t="shared" si="2"/>
         <v>0.57377049180327866</v>
       </c>
@@ -4231,7 +4235,7 @@
       <c r="O14">
         <v>44</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>0.60899999999999999</v>
       </c>
       <c r="Q14">
@@ -4244,11 +4248,11 @@
         <f t="shared" si="0"/>
         <v>37.67</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="4">
         <f t="shared" si="2"/>
         <v>0.6175409836065574</v>
       </c>
@@ -4299,7 +4303,7 @@
       <c r="O15">
         <v>44</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>0.60699999999999998</v>
       </c>
       <c r="Q15">
@@ -4312,11 +4316,11 @@
         <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="4">
         <f t="shared" si="2"/>
         <v>0.53278688524590168</v>
       </c>
@@ -4367,7 +4371,7 @@
       <c r="O16">
         <v>44</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>0.6</v>
       </c>
       <c r="Q16">
@@ -4380,11 +4384,11 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="4">
         <f t="shared" si="2"/>
         <v>0.5901639344262295</v>
       </c>
@@ -4435,7 +4439,7 @@
       <c r="O17">
         <v>44</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>0.59899999999999998</v>
       </c>
       <c r="Q17">
@@ -4448,11 +4452,11 @@
         <f t="shared" si="0"/>
         <v>38.909999999999997</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="4">
         <f t="shared" si="2"/>
         <v>0.63786885245901637</v>
       </c>
@@ -4503,7 +4507,7 @@
       <c r="O18">
         <v>44</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>0.59599999999999997</v>
       </c>
       <c r="Q18">
@@ -4516,11 +4520,11 @@
         <f t="shared" si="0"/>
         <v>35.68</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="4">
         <f t="shared" si="2"/>
         <v>0.58491803278688526</v>
       </c>
@@ -4571,7 +4575,7 @@
       <c r="O19">
         <v>44</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>0.58599999999999997</v>
       </c>
       <c r="Q19">
@@ -4584,11 +4588,11 @@
         <f t="shared" si="0"/>
         <v>36.93</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <f t="shared" si="2"/>
         <v>0.60540983606557375</v>
       </c>
@@ -4639,7 +4643,7 @@
       <c r="O20">
         <v>44</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>0.57999999999999996</v>
       </c>
       <c r="Q20">
@@ -4652,11 +4656,11 @@
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <f t="shared" si="2"/>
         <v>0.61475409836065575</v>
       </c>
@@ -4707,7 +4711,7 @@
       <c r="O21">
         <v>44</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>0.57899999999999996</v>
       </c>
       <c r="Q21">
@@ -4720,11 +4724,11 @@
         <f t="shared" si="0"/>
         <v>35.409999999999997</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <f t="shared" si="2"/>
         <v>0.58049180327868843</v>
       </c>
@@ -4775,7 +4779,7 @@
       <c r="O22">
         <v>44</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>0.57799999999999996</v>
       </c>
       <c r="Q22">
@@ -4788,11 +4792,11 @@
         <f t="shared" si="0"/>
         <v>37.33</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <f t="shared" si="2"/>
         <v>0.6119672131147541</v>
       </c>
@@ -4843,7 +4847,7 @@
       <c r="O23">
         <v>44</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="4">
         <v>0.57599999999999996</v>
       </c>
       <c r="Q23">
@@ -4856,11 +4860,11 @@
         <f t="shared" si="0"/>
         <v>29.18</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="4">
         <f t="shared" si="2"/>
         <v>0.47836065573770492</v>
       </c>
@@ -4911,7 +4915,7 @@
       <c r="O24">
         <v>44</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>0.57499999999999996</v>
       </c>
       <c r="Q24">
@@ -4924,11 +4928,11 @@
         <f t="shared" si="0"/>
         <v>33.1</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="4">
         <f t="shared" si="2"/>
         <v>0.54262295081967216</v>
       </c>
@@ -4979,7 +4983,7 @@
       <c r="O25">
         <v>44</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <v>0.57399999999999995</v>
       </c>
       <c r="Q25">
@@ -4992,11 +4996,11 @@
         <f t="shared" si="0"/>
         <v>32.020000000000003</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <f t="shared" si="2"/>
         <v>0.52491803278688531</v>
       </c>
@@ -5047,7 +5051,7 @@
       <c r="O26">
         <v>44</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q26">
@@ -5060,11 +5064,11 @@
         <f t="shared" si="0"/>
         <v>32.770000000000003</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="4">
         <f t="shared" si="2"/>
         <v>0.53721311475409839</v>
       </c>
@@ -5115,7 +5119,7 @@
       <c r="O27">
         <v>44</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <v>0.56699999999999995</v>
       </c>
       <c r="Q27">
@@ -5128,11 +5132,11 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="4">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="4">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -5183,7 +5187,7 @@
       <c r="O28">
         <v>44</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>0.55900000000000005</v>
       </c>
       <c r="Q28">
@@ -5196,11 +5200,11 @@
         <f t="shared" si="0"/>
         <v>29.939999999999998</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="4">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="4">
         <f t="shared" si="2"/>
         <v>0.49081967213114752</v>
       </c>
@@ -5251,7 +5255,7 @@
       <c r="O29">
         <v>44</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <v>0.55900000000000005</v>
       </c>
       <c r="Q29">
@@ -5264,11 +5268,11 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="4">
         <f t="shared" si="2"/>
         <v>0.52327868852459014</v>
       </c>
@@ -5319,7 +5323,7 @@
       <c r="O30">
         <v>44</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <v>0.55100000000000005</v>
       </c>
       <c r="Q30">
@@ -5332,11 +5336,11 @@
         <f t="shared" si="0"/>
         <v>31.33</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="4">
         <f t="shared" si="2"/>
         <v>0.51360655737704919</v>
       </c>
@@ -5387,7 +5391,7 @@
       <c r="O31">
         <v>44</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="4">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q31">
@@ -5400,11 +5404,11 @@
         <f t="shared" si="0"/>
         <v>32.25</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="4">
         <f t="shared" si="2"/>
         <v>0.52868852459016391</v>
       </c>
@@ -5455,7 +5459,7 @@
       <c r="O32">
         <v>44</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="4">
         <v>0.54800000000000004</v>
       </c>
       <c r="Q32">
@@ -5468,11 +5472,11 @@
         <f t="shared" si="0"/>
         <v>31.090000000000003</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="4">
         <f t="shared" si="2"/>
         <v>0.50967213114754106</v>
       </c>
@@ -5523,7 +5527,7 @@
       <c r="O33">
         <v>44</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
         <v>0.54600000000000004</v>
       </c>
       <c r="Q33">
@@ -5536,11 +5540,11 @@
         <f t="shared" si="0"/>
         <v>31.939999999999998</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="4">
         <f t="shared" si="2"/>
         <v>0.5236065573770492</v>
       </c>
@@ -5591,7 +5595,7 @@
       <c r="O34">
         <v>44</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="4">
         <v>0.54100000000000004</v>
       </c>
       <c r="Q34">
@@ -5604,11 +5608,11 @@
         <f t="shared" si="0"/>
         <v>31.6</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="4">
         <f t="shared" si="2"/>
         <v>0.5180327868852459</v>
       </c>
@@ -5659,7 +5663,7 @@
       <c r="O35">
         <v>44</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
         <v>0.54100000000000004</v>
       </c>
       <c r="Q35">
@@ -5672,11 +5676,11 @@
         <f t="shared" si="0"/>
         <v>31.58</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="4">
         <f t="shared" si="2"/>
         <v>0.51770491803278684</v>
       </c>
@@ -5727,7 +5731,7 @@
       <c r="O36">
         <v>44</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="4">
         <v>0.53900000000000003</v>
       </c>
       <c r="Q36">
@@ -5740,11 +5744,11 @@
         <f t="shared" si="0"/>
         <v>32.409999999999997</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="4">
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="4">
         <f t="shared" si="2"/>
         <v>0.53131147540983603</v>
       </c>
@@ -5795,7 +5799,7 @@
       <c r="O37">
         <v>44</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="4">
         <v>0.53800000000000003</v>
       </c>
       <c r="Q37">
@@ -5808,11 +5812,11 @@
         <f t="shared" si="0"/>
         <v>29.35</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="4">
         <f t="shared" si="2"/>
         <v>0.48114754098360657</v>
       </c>
@@ -5863,7 +5867,7 @@
       <c r="O38">
         <v>44</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="4">
         <v>0.53700000000000003</v>
       </c>
       <c r="Q38">
@@ -5876,11 +5880,11 @@
         <f t="shared" si="0"/>
         <v>29.25</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="4">
         <f t="shared" si="2"/>
         <v>0.47950819672131145</v>
       </c>
@@ -5931,7 +5935,7 @@
       <c r="O39">
         <v>44</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="4">
         <v>0.53500000000000003</v>
       </c>
       <c r="Q39">
@@ -5944,11 +5948,11 @@
         <f t="shared" si="0"/>
         <v>36.159999999999997</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="4">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="4">
         <f t="shared" si="2"/>
         <v>0.59278688524590162</v>
       </c>
@@ -5999,7 +6003,7 @@
       <c r="O40">
         <v>44</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="4">
         <v>0.53400000000000003</v>
       </c>
       <c r="Q40">
@@ -6012,11 +6016,11 @@
         <f t="shared" si="0"/>
         <v>29.08</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="4">
         <f t="shared" si="2"/>
         <v>0.4767213114754098</v>
       </c>
@@ -6067,7 +6071,7 @@
       <c r="O41">
         <v>44</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="4">
         <v>0.52800000000000002</v>
       </c>
       <c r="Q41">
@@ -6080,11 +6084,11 @@
         <f t="shared" si="0"/>
         <v>32.58</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="4">
         <f t="shared" si="2"/>
         <v>0.53409836065573768</v>
       </c>
@@ -6135,7 +6139,7 @@
       <c r="O42">
         <v>44</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="4">
         <v>0.52800000000000002</v>
       </c>
       <c r="Q42">
@@ -6148,11 +6152,11 @@
         <f t="shared" si="0"/>
         <v>28.58</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="4">
         <f t="shared" si="2"/>
         <v>0.46852459016393438</v>
       </c>
@@ -6203,7 +6207,7 @@
       <c r="O43">
         <v>44</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="4">
         <v>0.52600000000000002</v>
       </c>
       <c r="Q43">
@@ -6216,11 +6220,11 @@
         <f t="shared" si="0"/>
         <v>33.43</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="4">
         <f t="shared" si="2"/>
         <v>0.54803278688524593</v>
       </c>
@@ -6271,7 +6275,7 @@
       <c r="O44">
         <v>44</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="4">
         <v>0.52100000000000002</v>
       </c>
       <c r="Q44">
@@ -6284,11 +6288,11 @@
         <f t="shared" si="0"/>
         <v>34.08</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="4">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="4">
         <f t="shared" si="2"/>
         <v>0.55868852459016394</v>
       </c>
@@ -6339,7 +6343,7 @@
       <c r="O45">
         <v>44</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="4">
         <v>0.51900000000000002</v>
       </c>
       <c r="Q45">
@@ -6352,11 +6356,11 @@
         <f t="shared" si="0"/>
         <v>29.92</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="4">
         <f t="shared" si="2"/>
         <v>0.49049180327868858</v>
       </c>
@@ -6407,7 +6411,7 @@
       <c r="O46">
         <v>44</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="4">
         <v>0.51800000000000002</v>
       </c>
       <c r="Q46">
@@ -6420,11 +6424,11 @@
         <f t="shared" si="0"/>
         <v>32.83</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="4">
         <f t="shared" si="2"/>
         <v>0.53819672131147533</v>
       </c>
@@ -6475,7 +6479,7 @@
       <c r="O47">
         <v>44</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="4">
         <v>0.51700000000000002</v>
       </c>
       <c r="Q47">
@@ -6488,11 +6492,11 @@
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="4">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="4">
         <f t="shared" si="2"/>
         <v>0.55327868852459017</v>
       </c>
@@ -6543,7 +6547,7 @@
       <c r="O48">
         <v>44</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="4">
         <v>0.51700000000000002</v>
       </c>
       <c r="Q48">
@@ -6556,11 +6560,11 @@
         <f t="shared" si="0"/>
         <v>29.75</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="4">
         <f t="shared" si="2"/>
         <v>0.48770491803278687</v>
       </c>
@@ -6611,7 +6615,7 @@
       <c r="O49">
         <v>44</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="4">
         <v>0.51400000000000001</v>
       </c>
       <c r="Q49">
@@ -6624,11 +6628,11 @@
         <f t="shared" si="0"/>
         <v>34.58</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="4">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="4">
         <f t="shared" si="2"/>
         <v>0.56688524590163936</v>
       </c>
@@ -6679,7 +6683,7 @@
       <c r="O50">
         <v>44</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="4">
         <v>0.51400000000000001</v>
       </c>
       <c r="Q50">
@@ -6692,11 +6696,11 @@
         <f t="shared" si="0"/>
         <v>29.520000000000003</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="4">
         <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="4">
         <f t="shared" si="2"/>
         <v>0.48393442622950827</v>
       </c>
@@ -6747,7 +6751,7 @@
       <c r="O51">
         <v>44</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="4">
         <v>0.51</v>
       </c>
       <c r="Q51">
@@ -6760,11 +6764,11 @@
         <f t="shared" si="0"/>
         <v>28.270000000000003</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="4">
         <f t="shared" si="2"/>
         <v>0.46344262295081973</v>
       </c>
@@ -6815,7 +6819,7 @@
       <c r="O52">
         <v>44</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="4">
         <v>0.51</v>
       </c>
       <c r="Q52">
@@ -6828,11 +6832,11 @@
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="4">
         <f t="shared" si="2"/>
         <v>0.51229508196721307</v>
       </c>
@@ -6883,7 +6887,7 @@
       <c r="O53">
         <v>44</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="4">
         <v>0.50900000000000001</v>
       </c>
       <c r="Q53">
@@ -6896,11 +6900,11 @@
         <f t="shared" si="0"/>
         <v>31.17</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="4">
         <f t="shared" si="2"/>
         <v>0.51098360655737707</v>
       </c>
@@ -6951,7 +6955,7 @@
       <c r="O54">
         <v>44</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="4">
         <v>0.50700000000000001</v>
       </c>
       <c r="Q54">
@@ -6964,11 +6968,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="4">
         <f t="shared" si="2"/>
         <v>0.50819672131147542</v>
       </c>
@@ -7019,7 +7023,7 @@
       <c r="O55">
         <v>44</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="4">
         <v>0.50700000000000001</v>
       </c>
       <c r="Q55">
@@ -7032,11 +7036,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="4">
         <f t="shared" si="2"/>
         <v>0.50819672131147542</v>
       </c>
@@ -7087,7 +7091,7 @@
       <c r="O56">
         <v>44</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="4">
         <v>0.505</v>
       </c>
       <c r="Q56">
@@ -7100,11 +7104,11 @@
         <f t="shared" si="0"/>
         <v>31.909999999999997</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="4">
         <f t="shared" si="2"/>
         <v>0.52311475409836061</v>
       </c>
@@ -7155,7 +7159,7 @@
       <c r="O57">
         <v>44</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="4">
         <v>0.5</v>
       </c>
       <c r="Q57">
@@ -7168,11 +7172,11 @@
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="4">
         <f t="shared" si="2"/>
         <v>0.4344262295081967</v>
       </c>
@@ -7223,7 +7227,7 @@
       <c r="O58">
         <v>44</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="4">
         <v>0.49199999999999999</v>
       </c>
       <c r="Q58">
@@ -7236,11 +7240,11 @@
         <f t="shared" si="0"/>
         <v>26.909999999999997</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="4">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="4">
         <f t="shared" si="2"/>
         <v>0.44114754098360648</v>
       </c>
@@ -7291,7 +7295,7 @@
       <c r="O59">
         <v>44</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="4">
         <v>0.49199999999999999</v>
       </c>
       <c r="Q59">
@@ -7304,11 +7308,11 @@
         <f t="shared" si="0"/>
         <v>28.909999999999997</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="4">
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="4">
         <f t="shared" si="2"/>
         <v>0.47393442622950815</v>
       </c>
@@ -7359,7 +7363,7 @@
       <c r="O60">
         <v>44</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="4">
         <v>0.48099999999999998</v>
       </c>
       <c r="Q60">
@@ -7372,11 +7376,11 @@
         <f t="shared" si="0"/>
         <v>24.08</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="4">
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="4">
         <f t="shared" si="2"/>
         <v>0.39475409836065573</v>
       </c>
@@ -7427,7 +7431,7 @@
       <c r="O61">
         <v>44</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="4">
         <v>0.48</v>
       </c>
       <c r="Q61">
@@ -7440,11 +7444,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="4">
         <f t="shared" si="2"/>
         <v>0.49180327868852458</v>
       </c>
@@ -7495,7 +7499,7 @@
       <c r="O62">
         <v>44</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="4">
         <v>0.47599999999999998</v>
       </c>
       <c r="Q62">
@@ -7508,11 +7512,11 @@
         <f t="shared" si="0"/>
         <v>28.68</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="4">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="4">
         <f t="shared" si="2"/>
         <v>0.4701639344262295</v>
       </c>
@@ -7563,7 +7567,7 @@
       <c r="O63">
         <v>44</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="4">
         <v>0.47499999999999998</v>
       </c>
       <c r="Q63">
@@ -7576,11 +7580,11 @@
         <f t="shared" si="0"/>
         <v>30.659999999999997</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="4">
         <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="4">
         <f t="shared" si="2"/>
         <v>0.50262295081967212</v>
       </c>
@@ -7631,7 +7635,7 @@
       <c r="O64">
         <v>44</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="4">
         <v>0.47199999999999998</v>
       </c>
       <c r="Q64">
@@ -7644,11 +7648,11 @@
         <f t="shared" si="0"/>
         <v>24.409999999999997</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="4">
         <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="4">
         <f t="shared" si="2"/>
         <v>0.40016393442622944</v>
       </c>
@@ -7699,7 +7703,7 @@
       <c r="O65">
         <v>44</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="4">
         <v>0.47099999999999997</v>
       </c>
       <c r="Q65">
@@ -7712,11 +7716,11 @@
         <f t="shared" si="0"/>
         <v>29.35</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="4">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="4">
         <f t="shared" si="2"/>
         <v>0.48114754098360657</v>
       </c>
@@ -7767,7 +7771,7 @@
       <c r="O66">
         <v>44</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="4">
         <v>0.46899999999999997</v>
       </c>
       <c r="Q66">
@@ -7780,11 +7784,11 @@
         <f t="shared" si="0"/>
         <v>27.18</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="4">
         <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="4">
         <f t="shared" si="2"/>
         <v>0.4455737704918033</v>
       </c>
@@ -7835,7 +7839,7 @@
       <c r="O67">
         <v>44</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="4">
         <v>0.46899999999999997</v>
       </c>
       <c r="Q67">
@@ -7848,11 +7852,11 @@
         <f t="shared" ref="S67:S130" si="3">$L67-$R67</f>
         <v>27.17</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="4">
         <f t="shared" ref="T67:T130" si="4">$R67/14</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="4">
         <f t="shared" ref="U67:U130" si="5">$S67/61</f>
         <v>0.44540983606557377</v>
       </c>
@@ -7903,7 +7907,7 @@
       <c r="O68">
         <v>44</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="4">
         <v>0.46800000000000003</v>
       </c>
       <c r="Q68">
@@ -7916,11 +7920,11 @@
         <f t="shared" si="3"/>
         <v>31.1</v>
       </c>
-      <c r="T68">
+      <c r="T68" s="4">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="4">
         <f t="shared" si="5"/>
         <v>0.50983606557377048</v>
       </c>
@@ -7971,7 +7975,7 @@
       <c r="O69">
         <v>44</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="4">
         <v>0.46400000000000002</v>
       </c>
       <c r="Q69">
@@ -7984,11 +7988,11 @@
         <f t="shared" si="3"/>
         <v>24.83</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="4">
         <f t="shared" si="5"/>
         <v>0.4070491803278688</v>
       </c>
@@ -8039,7 +8043,7 @@
       <c r="O70">
         <v>44</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="4">
         <v>0.46200000000000002</v>
       </c>
       <c r="Q70">
@@ -8052,11 +8056,11 @@
         <f t="shared" si="3"/>
         <v>27.68</v>
       </c>
-      <c r="T70">
+      <c r="T70" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="4">
         <f t="shared" si="5"/>
         <v>0.45377049180327866</v>
       </c>
@@ -8107,7 +8111,7 @@
       <c r="O71">
         <v>44</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="4">
         <v>0.46100000000000002</v>
       </c>
       <c r="Q71">
@@ -8120,11 +8124,11 @@
         <f t="shared" si="3"/>
         <v>27.6</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="4">
         <f t="shared" si="5"/>
         <v>0.45245901639344266</v>
       </c>
@@ -8175,7 +8179,7 @@
       <c r="O72">
         <v>44</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="4">
         <v>0.45900000000000002</v>
       </c>
       <c r="Q72">
@@ -8188,11 +8192,11 @@
         <f t="shared" si="3"/>
         <v>27.42</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="4">
         <f t="shared" si="5"/>
         <v>0.44950819672131148</v>
       </c>
@@ -8243,7 +8247,7 @@
       <c r="O73">
         <v>44</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="Q73">
@@ -8256,11 +8260,11 @@
         <f t="shared" si="3"/>
         <v>26.18</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="4">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="4">
         <f t="shared" si="5"/>
         <v>0.42918032786885246</v>
       </c>
@@ -8311,7 +8315,7 @@
       <c r="O74">
         <v>44</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="4">
         <v>0.45500000000000002</v>
       </c>
       <c r="Q74">
@@ -8324,11 +8328,11 @@
         <f t="shared" si="3"/>
         <v>26.159999999999997</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="4">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="4">
         <f t="shared" si="5"/>
         <v>0.42885245901639341</v>
       </c>
@@ -8379,7 +8383,7 @@
       <c r="O75">
         <v>44</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="4">
         <v>0.45300000000000001</v>
       </c>
       <c r="Q75">
@@ -8392,11 +8396,11 @@
         <f t="shared" si="3"/>
         <v>28.009999999999998</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="4">
         <f t="shared" si="5"/>
         <v>0.45918032786885243</v>
       </c>
@@ -8447,7 +8451,7 @@
       <c r="O76">
         <v>44</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="4">
         <v>0.45300000000000001</v>
       </c>
       <c r="Q76">
@@ -8460,11 +8464,11 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="4">
         <f t="shared" si="5"/>
         <v>0.45901639344262296</v>
       </c>
@@ -8515,7 +8519,7 @@
       <c r="O77">
         <v>44</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="Q77">
@@ -8528,11 +8532,11 @@
         <f t="shared" si="3"/>
         <v>28.83</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="4">
         <f t="shared" si="5"/>
         <v>0.47262295081967209</v>
       </c>
@@ -8583,7 +8587,7 @@
       <c r="O78">
         <v>44</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="4">
         <v>0.44800000000000001</v>
       </c>
       <c r="Q78">
@@ -8596,11 +8600,11 @@
         <f t="shared" si="3"/>
         <v>23.58</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="4">
         <f t="shared" si="5"/>
         <v>0.38655737704918031</v>
       </c>
@@ -8651,7 +8655,7 @@
       <c r="O79">
         <v>44</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="4">
         <v>0.44800000000000001</v>
       </c>
       <c r="Q79">
@@ -8664,11 +8668,11 @@
         <f t="shared" si="3"/>
         <v>23.58</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="4">
         <f t="shared" si="5"/>
         <v>0.38655737704918031</v>
       </c>
@@ -8719,7 +8723,7 @@
       <c r="O80">
         <v>44</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="4">
         <v>0.44500000000000001</v>
       </c>
       <c r="Q80">
@@ -8732,11 +8736,11 @@
         <f t="shared" si="3"/>
         <v>27.409999999999997</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="4">
         <f t="shared" si="5"/>
         <v>0.4493442622950819</v>
       </c>
@@ -8787,7 +8791,7 @@
       <c r="O81">
         <v>44</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="4">
         <v>0.443</v>
       </c>
       <c r="Q81">
@@ -8800,11 +8804,11 @@
         <f t="shared" si="3"/>
         <v>24.189999999999998</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="4">
         <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="4">
         <f t="shared" si="5"/>
         <v>0.39655737704918032</v>
       </c>
@@ -8855,7 +8859,7 @@
       <c r="O82">
         <v>44</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="4">
         <v>0.44</v>
       </c>
       <c r="Q82">
@@ -8868,11 +8872,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="4">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="4">
         <f t="shared" si="5"/>
         <v>0.49180327868852458</v>
       </c>
@@ -8923,7 +8927,7 @@
       <c r="O83">
         <v>44</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="4">
         <v>0.439</v>
       </c>
       <c r="Q83">
@@ -8936,11 +8940,11 @@
         <f t="shared" si="3"/>
         <v>26.92</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="4">
         <f t="shared" si="5"/>
         <v>0.44131147540983612</v>
       </c>
@@ -8991,7 +8995,7 @@
       <c r="O84">
         <v>44</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="4">
         <v>0.435</v>
       </c>
       <c r="Q84">
@@ -9004,11 +9008,11 @@
         <f t="shared" si="3"/>
         <v>27.590000000000003</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="4">
         <f t="shared" si="5"/>
         <v>0.45229508196721319</v>
       </c>
@@ -9059,7 +9063,7 @@
       <c r="O85">
         <v>44</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="4">
         <v>0.432</v>
       </c>
       <c r="Q85">
@@ -9072,11 +9076,11 @@
         <f t="shared" si="3"/>
         <v>26.42</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="4">
         <f t="shared" si="5"/>
         <v>0.4331147540983607</v>
       </c>
@@ -9127,7 +9131,7 @@
       <c r="O86">
         <v>44</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="4">
         <v>0.43099999999999999</v>
       </c>
       <c r="Q86">
@@ -9140,11 +9144,11 @@
         <f t="shared" si="3"/>
         <v>25.35</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="4">
         <f t="shared" si="5"/>
         <v>0.41557377049180333</v>
       </c>
@@ -9195,7 +9199,7 @@
       <c r="O87">
         <v>44</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="Q87">
@@ -9208,11 +9212,11 @@
         <f t="shared" si="3"/>
         <v>20.159999999999997</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="4">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="4">
         <f t="shared" si="5"/>
         <v>0.33049180327868849</v>
       </c>
@@ -9263,7 +9267,7 @@
       <c r="O88">
         <v>44</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="4">
         <v>0.42799999999999999</v>
       </c>
       <c r="Q88">
@@ -9276,11 +9280,11 @@
         <f t="shared" si="3"/>
         <v>23.1</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="4">
         <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="4">
         <f t="shared" si="5"/>
         <v>0.37868852459016394</v>
       </c>
@@ -9331,7 +9335,7 @@
       <c r="O89">
         <v>44</v>
       </c>
-      <c r="P89">
+      <c r="P89" s="4">
         <v>0.42599999999999999</v>
       </c>
       <c r="Q89">
@@ -9344,11 +9348,11 @@
         <f t="shared" si="3"/>
         <v>21.92</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="4">
         <f t="shared" si="5"/>
         <v>0.35934426229508198</v>
       </c>
@@ -9399,7 +9403,7 @@
       <c r="O90">
         <v>44</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="4">
         <v>0.42</v>
       </c>
       <c r="Q90">
@@ -9412,11 +9416,11 @@
         <f t="shared" si="3"/>
         <v>26.5</v>
       </c>
-      <c r="T90">
+      <c r="T90" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="4">
         <f t="shared" si="5"/>
         <v>0.4344262295081967</v>
       </c>
@@ -9467,7 +9471,7 @@
       <c r="O91">
         <v>44</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="Q91">
@@ -9480,11 +9484,11 @@
         <f t="shared" si="3"/>
         <v>22.34</v>
       </c>
-      <c r="T91">
+      <c r="T91" s="4">
         <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U91">
+      <c r="U91" s="4">
         <f t="shared" si="5"/>
         <v>0.36622950819672129</v>
       </c>
@@ -9535,7 +9539,7 @@
       <c r="O92">
         <v>44</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="4">
         <v>0.41799999999999998</v>
       </c>
       <c r="Q92">
@@ -9548,11 +9552,11 @@
         <f t="shared" si="3"/>
         <v>24.33</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="4">
         <f t="shared" si="5"/>
         <v>0.39885245901639343</v>
       </c>
@@ -9603,7 +9607,7 @@
       <c r="O93">
         <v>44</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="4">
         <v>0.41699999999999998</v>
       </c>
       <c r="Q93">
@@ -9616,11 +9620,11 @@
         <f t="shared" si="3"/>
         <v>20.27</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="4">
         <f t="shared" si="4"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="4">
         <f t="shared" si="5"/>
         <v>0.33229508196721314</v>
       </c>
@@ -9671,7 +9675,7 @@
       <c r="O94">
         <v>44</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="4">
         <v>0.41499999999999998</v>
       </c>
       <c r="Q94">
@@ -9684,11 +9688,11 @@
         <f t="shared" si="3"/>
         <v>27.16</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="4">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U94">
+      <c r="U94" s="4">
         <f t="shared" si="5"/>
         <v>0.44524590163934424</v>
       </c>
@@ -9739,7 +9743,7 @@
       <c r="O95">
         <v>44</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="4">
         <v>0.41399999999999998</v>
       </c>
       <c r="Q95">
@@ -9752,11 +9756,11 @@
         <f t="shared" si="3"/>
         <v>24.08</v>
       </c>
-      <c r="T95">
+      <c r="T95" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="4">
         <f t="shared" si="5"/>
         <v>0.39475409836065573</v>
       </c>
@@ -9807,7 +9811,7 @@
       <c r="O96">
         <v>44</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="4">
         <v>0.41299999999999998</v>
       </c>
       <c r="Q96">
@@ -9820,11 +9824,11 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U96">
+      <c r="U96" s="4">
         <f t="shared" si="5"/>
         <v>0.39344262295081966</v>
       </c>
@@ -9875,7 +9879,7 @@
       <c r="O97">
         <v>44</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="4">
         <v>0.41199999999999998</v>
       </c>
       <c r="Q97">
@@ -9888,11 +9892,11 @@
         <f t="shared" si="3"/>
         <v>24.91</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U97">
+      <c r="U97" s="4">
         <f t="shared" si="5"/>
         <v>0.40836065573770491</v>
       </c>
@@ -9943,7 +9947,7 @@
       <c r="O98">
         <v>44</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="4">
         <v>0.41</v>
       </c>
       <c r="Q98">
@@ -9956,11 +9960,11 @@
         <f t="shared" si="3"/>
         <v>23.76</v>
       </c>
-      <c r="T98">
+      <c r="T98" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U98">
+      <c r="U98" s="4">
         <f t="shared" si="5"/>
         <v>0.38950819672131148</v>
       </c>
@@ -10011,7 +10015,7 @@
       <c r="O99">
         <v>44</v>
       </c>
-      <c r="P99">
+      <c r="P99" s="4">
         <v>0.40799999999999997</v>
       </c>
       <c r="Q99">
@@ -10024,11 +10028,11 @@
         <f t="shared" si="3"/>
         <v>22.6</v>
       </c>
-      <c r="T99">
+      <c r="T99" s="4">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U99">
+      <c r="U99" s="4">
         <f t="shared" si="5"/>
         <v>0.37049180327868853</v>
       </c>
@@ -10079,7 +10083,7 @@
       <c r="O100">
         <v>44</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="4">
         <v>0.40600000000000003</v>
       </c>
       <c r="Q100">
@@ -10092,11 +10096,11 @@
         <f t="shared" si="3"/>
         <v>22.42</v>
       </c>
-      <c r="T100">
+      <c r="T100" s="4">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U100">
+      <c r="U100" s="4">
         <f t="shared" si="5"/>
         <v>0.3675409836065574</v>
       </c>
@@ -10147,7 +10151,7 @@
       <c r="O101">
         <v>44</v>
       </c>
-      <c r="P101">
+      <c r="P101" s="4">
         <v>0.40500000000000003</v>
       </c>
       <c r="Q101">
@@ -10160,11 +10164,11 @@
         <f t="shared" si="3"/>
         <v>24.41</v>
       </c>
-      <c r="T101">
+      <c r="T101" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U101">
+      <c r="U101" s="4">
         <f t="shared" si="5"/>
         <v>0.4001639344262295</v>
       </c>
@@ -10215,7 +10219,7 @@
       <c r="O102">
         <v>44</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="4">
         <v>0.40300000000000002</v>
       </c>
       <c r="Q102">
@@ -10228,11 +10232,11 @@
         <f t="shared" si="3"/>
         <v>25.26</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="4">
         <f t="shared" si="5"/>
         <v>0.41409836065573774</v>
       </c>
@@ -10283,7 +10287,7 @@
       <c r="O103">
         <v>44</v>
       </c>
-      <c r="P103">
+      <c r="P103" s="4">
         <v>0.40300000000000002</v>
       </c>
       <c r="Q103">
@@ -10296,11 +10300,11 @@
         <f t="shared" si="3"/>
         <v>25.2</v>
       </c>
-      <c r="T103">
+      <c r="T103" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U103">
+      <c r="U103" s="4">
         <f t="shared" si="5"/>
         <v>0.41311475409836063</v>
       </c>
@@ -10351,7 +10355,7 @@
       <c r="O104">
         <v>44</v>
       </c>
-      <c r="P104">
+      <c r="P104" s="4">
         <v>0.40100000000000002</v>
       </c>
       <c r="Q104">
@@ -10364,11 +10368,11 @@
         <f t="shared" si="3"/>
         <v>27.08</v>
       </c>
-      <c r="T104">
+      <c r="T104" s="4">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U104">
+      <c r="U104" s="4">
         <f t="shared" si="5"/>
         <v>0.44393442622950818</v>
       </c>
@@ -10419,7 +10423,7 @@
       <c r="O105">
         <v>44</v>
       </c>
-      <c r="P105">
+      <c r="P105" s="4">
         <v>0.4</v>
       </c>
       <c r="Q105">
@@ -10432,11 +10436,11 @@
         <f t="shared" si="3"/>
         <v>20.03</v>
       </c>
-      <c r="T105">
+      <c r="T105" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U105">
+      <c r="U105" s="4">
         <f t="shared" si="5"/>
         <v>0.32836065573770495</v>
       </c>
@@ -10487,7 +10491,7 @@
       <c r="O106">
         <v>44</v>
       </c>
-      <c r="P106">
+      <c r="P106" s="4">
         <v>0.4</v>
       </c>
       <c r="Q106">
@@ -10500,11 +10504,11 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="T106">
+      <c r="T106" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U106">
+      <c r="U106" s="4">
         <f t="shared" si="5"/>
         <v>0.4098360655737705</v>
       </c>
@@ -10555,7 +10559,7 @@
       <c r="O107">
         <v>44</v>
       </c>
-      <c r="P107">
+      <c r="P107" s="4">
         <v>0.39800000000000002</v>
       </c>
       <c r="Q107">
@@ -10568,11 +10572,11 @@
         <f t="shared" si="3"/>
         <v>22.85</v>
       </c>
-      <c r="T107">
+      <c r="T107" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U107">
+      <c r="U107" s="4">
         <f t="shared" si="5"/>
         <v>0.37459016393442623</v>
       </c>
@@ -10623,7 +10627,7 @@
       <c r="O108">
         <v>44</v>
       </c>
-      <c r="P108">
+      <c r="P108" s="4">
         <v>0.39700000000000002</v>
       </c>
       <c r="Q108">
@@ -10636,11 +10640,11 @@
         <f t="shared" si="3"/>
         <v>20.75</v>
       </c>
-      <c r="T108">
+      <c r="T108" s="4">
         <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U108">
+      <c r="U108" s="4">
         <f t="shared" si="5"/>
         <v>0.3401639344262295</v>
       </c>
@@ -10691,7 +10695,7 @@
       <c r="O109">
         <v>44</v>
       </c>
-      <c r="P109">
+      <c r="P109" s="4">
         <v>0.39300000000000002</v>
       </c>
       <c r="Q109">
@@ -10704,11 +10708,11 @@
         <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
-      <c r="T109">
+      <c r="T109" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U109">
+      <c r="U109" s="4">
         <f t="shared" si="5"/>
         <v>0.40163934426229508</v>
       </c>
@@ -10759,7 +10763,7 @@
       <c r="O110">
         <v>44</v>
       </c>
-      <c r="P110">
+      <c r="P110" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="Q110">
@@ -10772,11 +10776,11 @@
         <f t="shared" si="3"/>
         <v>23.43</v>
       </c>
-      <c r="T110">
+      <c r="T110" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U110">
+      <c r="U110" s="4">
         <f t="shared" si="5"/>
         <v>0.38409836065573771</v>
       </c>
@@ -10827,7 +10831,7 @@
       <c r="O111">
         <v>44</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="Q111">
@@ -10840,11 +10844,11 @@
         <f t="shared" si="3"/>
         <v>18.350000000000001</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="4">
         <f t="shared" si="4"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U111">
+      <c r="U111" s="4">
         <f t="shared" si="5"/>
         <v>0.30081967213114758</v>
       </c>
@@ -10895,7 +10899,7 @@
       <c r="O112">
         <v>44</v>
       </c>
-      <c r="P112">
+      <c r="P112" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="Q112">
@@ -10908,11 +10912,11 @@
         <f t="shared" si="3"/>
         <v>24.35</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U112">
+      <c r="U112" s="4">
         <f t="shared" si="5"/>
         <v>0.39918032786885249</v>
       </c>
@@ -10963,7 +10967,7 @@
       <c r="O113">
         <v>44</v>
       </c>
-      <c r="P113">
+      <c r="P113" s="4">
         <v>0.39</v>
       </c>
       <c r="Q113">
@@ -10976,11 +10980,11 @@
         <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
-      <c r="T113">
+      <c r="T113" s="4">
         <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U113">
+      <c r="U113" s="4">
         <f t="shared" si="5"/>
         <v>0.34836065573770492</v>
       </c>
@@ -11031,7 +11035,7 @@
       <c r="O114">
         <v>44</v>
       </c>
-      <c r="P114">
+      <c r="P114" s="4">
         <v>0.38800000000000001</v>
       </c>
       <c r="Q114">
@@ -11044,11 +11048,11 @@
         <f t="shared" si="3"/>
         <v>26.08</v>
       </c>
-      <c r="T114">
+      <c r="T114" s="4">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U114">
+      <c r="U114" s="4">
         <f t="shared" si="5"/>
         <v>0.42754098360655735</v>
       </c>
@@ -11099,7 +11103,7 @@
       <c r="O115">
         <v>44</v>
       </c>
-      <c r="P115">
+      <c r="P115" s="4">
         <v>0.38700000000000001</v>
       </c>
       <c r="Q115">
@@ -11112,11 +11116,11 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="T115">
+      <c r="T115" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U115">
+      <c r="U115" s="4">
         <f t="shared" si="5"/>
         <v>0.37704918032786883</v>
       </c>
@@ -11167,7 +11171,7 @@
       <c r="O116">
         <v>44</v>
       </c>
-      <c r="P116">
+      <c r="P116" s="4">
         <v>0.38600000000000001</v>
       </c>
       <c r="Q116">
@@ -11180,11 +11184,11 @@
         <f t="shared" si="3"/>
         <v>21.93</v>
       </c>
-      <c r="T116">
+      <c r="T116" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U116">
+      <c r="U116" s="4">
         <f t="shared" si="5"/>
         <v>0.35950819672131146</v>
       </c>
@@ -11235,7 +11239,7 @@
       <c r="O117">
         <v>44</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="4">
         <v>0.378</v>
       </c>
       <c r="Q117">
@@ -11248,11 +11252,11 @@
         <f t="shared" si="3"/>
         <v>23.33</v>
       </c>
-      <c r="T117">
+      <c r="T117" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U117">
+      <c r="U117" s="4">
         <f t="shared" si="5"/>
         <v>0.3824590163934426</v>
       </c>
@@ -11303,7 +11307,7 @@
       <c r="O118">
         <v>44</v>
       </c>
-      <c r="P118">
+      <c r="P118" s="4">
         <v>0.372</v>
       </c>
       <c r="Q118">
@@ -11316,11 +11320,11 @@
         <f t="shared" si="3"/>
         <v>21.92</v>
       </c>
-      <c r="T118">
+      <c r="T118" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U118">
+      <c r="U118" s="4">
         <f t="shared" si="5"/>
         <v>0.35934426229508198</v>
       </c>
@@ -11371,7 +11375,7 @@
       <c r="O119">
         <v>44</v>
       </c>
-      <c r="P119">
+      <c r="P119" s="4">
         <v>0.372</v>
       </c>
       <c r="Q119">
@@ -11384,11 +11388,11 @@
         <f t="shared" si="3"/>
         <v>20.92</v>
       </c>
-      <c r="T119">
+      <c r="T119" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U119">
+      <c r="U119" s="4">
         <f t="shared" si="5"/>
         <v>0.3429508196721312</v>
       </c>
@@ -11439,7 +11443,7 @@
       <c r="O120">
         <v>44</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="4">
         <v>0.372</v>
       </c>
       <c r="Q120">
@@ -11452,11 +11456,11 @@
         <f t="shared" si="3"/>
         <v>20.91</v>
       </c>
-      <c r="T120">
+      <c r="T120" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U120">
+      <c r="U120" s="4">
         <f t="shared" si="5"/>
         <v>0.34278688524590162</v>
       </c>
@@ -11507,7 +11511,7 @@
       <c r="O121">
         <v>44</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="4">
         <v>0.371</v>
       </c>
       <c r="Q121">
@@ -11520,11 +11524,11 @@
         <f t="shared" si="3"/>
         <v>25.85</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="4">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="U121">
+      <c r="U121" s="4">
         <f t="shared" si="5"/>
         <v>0.42377049180327869</v>
       </c>
@@ -11575,7 +11579,7 @@
       <c r="O122">
         <v>44</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="Q122">
@@ -11588,11 +11592,11 @@
         <f t="shared" si="3"/>
         <v>20.100000000000001</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U122">
+      <c r="U122" s="4">
         <f t="shared" si="5"/>
         <v>0.32950819672131149</v>
       </c>
@@ -11643,7 +11647,7 @@
       <c r="O123">
         <v>44</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="4">
         <v>0.35699999999999998</v>
       </c>
       <c r="Q123">
@@ -11656,11 +11660,11 @@
         <f t="shared" si="3"/>
         <v>21.76</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="4">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U123">
+      <c r="U123" s="4">
         <f t="shared" si="5"/>
         <v>0.35672131147540986</v>
       </c>
@@ -11711,7 +11715,7 @@
       <c r="O124">
         <v>44</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="4">
         <v>0.34899999999999998</v>
       </c>
       <c r="Q124">
@@ -11724,11 +11728,11 @@
         <f t="shared" si="3"/>
         <v>19.170000000000002</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U124">
+      <c r="U124" s="4">
         <f t="shared" si="5"/>
         <v>0.31426229508196724</v>
       </c>
@@ -11779,7 +11783,7 @@
       <c r="O125">
         <v>44</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="4">
         <v>0.34300000000000003</v>
       </c>
       <c r="Q125">
@@ -11792,11 +11796,11 @@
         <f t="shared" si="3"/>
         <v>22.75</v>
       </c>
-      <c r="T125">
+      <c r="T125" s="4">
         <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U125">
+      <c r="U125" s="4">
         <f t="shared" si="5"/>
         <v>0.37295081967213117</v>
       </c>
@@ -11847,7 +11851,7 @@
       <c r="O126">
         <v>44</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="4">
         <v>0.33900000000000002</v>
       </c>
       <c r="Q126">
@@ -11860,11 +11864,11 @@
         <f t="shared" si="3"/>
         <v>21.43</v>
       </c>
-      <c r="T126">
+      <c r="T126" s="4">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U126">
+      <c r="U126" s="4">
         <f t="shared" si="5"/>
         <v>0.35131147540983604</v>
       </c>
@@ -11915,7 +11919,7 @@
       <c r="O127">
         <v>44</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="4">
         <v>0.33400000000000002</v>
       </c>
       <c r="Q127">
@@ -11928,11 +11932,11 @@
         <f t="shared" si="3"/>
         <v>18.079999999999998</v>
       </c>
-      <c r="T127">
+      <c r="T127" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U127">
+      <c r="U127" s="4">
         <f t="shared" si="5"/>
         <v>0.29639344262295081</v>
       </c>
@@ -11983,7 +11987,7 @@
       <c r="O128">
         <v>44</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="4">
         <v>0.33400000000000002</v>
       </c>
       <c r="Q128">
@@ -11996,11 +12000,11 @@
         <f t="shared" si="3"/>
         <v>18.079999999999998</v>
       </c>
-      <c r="T128">
+      <c r="T128" s="4">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U128">
+      <c r="U128" s="4">
         <f t="shared" si="5"/>
         <v>0.29639344262295081</v>
       </c>
@@ -12051,7 +12055,7 @@
       <c r="O129">
         <v>44</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="4">
         <v>0.33300000000000002</v>
       </c>
       <c r="Q129">
@@ -12064,11 +12068,11 @@
         <f t="shared" si="3"/>
         <v>19.010000000000002</v>
       </c>
-      <c r="T129">
+      <c r="T129" s="4">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U129">
+      <c r="U129" s="4">
         <f t="shared" si="5"/>
         <v>0.31163934426229511</v>
       </c>
@@ -12119,7 +12123,7 @@
       <c r="O130">
         <v>44</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="4">
         <v>0.32300000000000001</v>
       </c>
       <c r="Q130">
@@ -12132,11 +12136,11 @@
         <f t="shared" si="3"/>
         <v>14.260000000000002</v>
       </c>
-      <c r="T130">
+      <c r="T130" s="4">
         <f t="shared" si="4"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U130">
+      <c r="U130" s="4">
         <f t="shared" si="5"/>
         <v>0.23377049180327872</v>
       </c>
@@ -12187,7 +12191,7 @@
       <c r="O131">
         <v>44</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="4">
         <v>0.32300000000000001</v>
       </c>
       <c r="Q131">
@@ -12200,11 +12204,11 @@
         <f t="shared" ref="S131:S194" si="6">$L131-$R131</f>
         <v>21.26</v>
       </c>
-      <c r="T131">
+      <c r="T131" s="4">
         <f t="shared" ref="T131:T194" si="7">$R131/14</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U131">
+      <c r="U131" s="4">
         <f t="shared" ref="U131:U194" si="8">$S131/61</f>
         <v>0.34852459016393444</v>
       </c>
@@ -12255,7 +12259,7 @@
       <c r="O132">
         <v>44</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="4">
         <v>0.32200000000000001</v>
       </c>
       <c r="Q132">
@@ -12268,11 +12272,11 @@
         <f t="shared" si="6"/>
         <v>21.17</v>
       </c>
-      <c r="T132">
+      <c r="T132" s="4">
         <f t="shared" si="7"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U132">
+      <c r="U132" s="4">
         <f t="shared" si="8"/>
         <v>0.34704918032786886</v>
       </c>
@@ -12323,7 +12327,7 @@
       <c r="O133">
         <v>44</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="4">
         <v>0.32200000000000001</v>
       </c>
       <c r="Q133">
@@ -12336,11 +12340,11 @@
         <f t="shared" si="6"/>
         <v>14.16</v>
       </c>
-      <c r="T133">
+      <c r="T133" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U133">
+      <c r="U133" s="4">
         <f t="shared" si="8"/>
         <v>0.2321311475409836</v>
       </c>
@@ -12391,7 +12395,7 @@
       <c r="O134">
         <v>44</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="4">
         <v>0.31900000000000001</v>
       </c>
       <c r="Q134">
@@ -12404,11 +12408,11 @@
         <f t="shared" si="6"/>
         <v>19.91</v>
       </c>
-      <c r="T134">
+      <c r="T134" s="4">
         <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U134">
+      <c r="U134" s="4">
         <f t="shared" si="8"/>
         <v>0.32639344262295084</v>
       </c>
@@ -12459,7 +12463,7 @@
       <c r="O135">
         <v>44</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="4">
         <v>0.315</v>
       </c>
       <c r="Q135">
@@ -12472,11 +12476,11 @@
         <f t="shared" si="6"/>
         <v>16.66</v>
       </c>
-      <c r="T135">
+      <c r="T135" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="U135">
+      <c r="U135" s="4">
         <f t="shared" si="8"/>
         <v>0.27311475409836067</v>
       </c>
@@ -12527,7 +12531,7 @@
       <c r="O136">
         <v>44</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="4">
         <v>0.3</v>
       </c>
       <c r="Q136">
@@ -12540,11 +12544,11 @@
         <f t="shared" si="6"/>
         <v>19.47</v>
       </c>
-      <c r="T136">
+      <c r="T136" s="4">
         <f t="shared" si="7"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U136">
+      <c r="U136" s="4">
         <f t="shared" si="8"/>
         <v>0.31918032786885242</v>
       </c>
@@ -12595,7 +12599,7 @@
       <c r="O137">
         <v>44</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="4">
         <v>0.29599999999999999</v>
       </c>
       <c r="Q137">
@@ -12608,11 +12612,11 @@
         <f t="shared" si="6"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="T137">
+      <c r="T137" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U137">
+      <c r="U137" s="4">
         <f t="shared" si="8"/>
         <v>0.26508196721311478</v>
       </c>
@@ -12663,7 +12667,7 @@
       <c r="O138">
         <v>44</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="4">
         <v>0.28699999999999998</v>
       </c>
       <c r="Q138">
@@ -12676,11 +12680,11 @@
         <f t="shared" si="6"/>
         <v>14.5</v>
       </c>
-      <c r="T138">
+      <c r="T138" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="U138">
+      <c r="U138" s="4">
         <f t="shared" si="8"/>
         <v>0.23770491803278687</v>
       </c>
@@ -12731,7 +12735,7 @@
       <c r="O139">
         <v>44</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="4">
         <v>0.28599999999999998</v>
       </c>
       <c r="Q139">
@@ -12744,11 +12748,11 @@
         <f t="shared" si="6"/>
         <v>15.420000000000002</v>
       </c>
-      <c r="T139">
+      <c r="T139" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U139">
+      <c r="U139" s="4">
         <f t="shared" si="8"/>
         <v>0.25278688524590165</v>
       </c>
@@ -12799,7 +12803,7 @@
       <c r="O140">
         <v>44</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="4">
         <v>0.28299999999999997</v>
       </c>
       <c r="Q140">
@@ -12812,11 +12816,11 @@
         <f t="shared" si="6"/>
         <v>13.190000000000001</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="4">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="4">
         <f t="shared" si="8"/>
         <v>0.21622950819672132</v>
       </c>
@@ -12867,7 +12871,7 @@
       <c r="O141">
         <v>44</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="4">
         <v>0.28199999999999997</v>
       </c>
       <c r="Q141">
@@ -12880,11 +12884,11 @@
         <f t="shared" si="6"/>
         <v>14.16</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="U141">
+      <c r="U141" s="4">
         <f t="shared" si="8"/>
         <v>0.2321311475409836</v>
       </c>
@@ -12935,7 +12939,7 @@
       <c r="O142">
         <v>44</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="4">
         <v>0.27500000000000002</v>
       </c>
       <c r="Q142">
@@ -12948,11 +12952,11 @@
         <f t="shared" si="6"/>
         <v>11.600000000000001</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U142">
+      <c r="U142" s="4">
         <f t="shared" si="8"/>
         <v>0.19016393442622953</v>
       </c>
@@ -13003,7 +13007,7 @@
       <c r="O143">
         <v>44</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="4">
         <v>0.27400000000000002</v>
       </c>
       <c r="Q143">
@@ -13016,11 +13020,11 @@
         <f t="shared" si="6"/>
         <v>14.579999999999998</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U143">
+      <c r="U143" s="4">
         <f t="shared" si="8"/>
         <v>0.23901639344262293</v>
       </c>
@@ -13071,7 +13075,7 @@
       <c r="O144">
         <v>44</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="4">
         <v>0.26300000000000001</v>
       </c>
       <c r="Q144">
@@ -13084,11 +13088,11 @@
         <f t="shared" si="6"/>
         <v>16.760000000000002</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="4">
         <f t="shared" si="7"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U144">
+      <c r="U144" s="4">
         <f t="shared" si="8"/>
         <v>0.27475409836065579</v>
       </c>
@@ -13139,7 +13143,7 @@
       <c r="O145">
         <v>44</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="4">
         <v>0.25800000000000001</v>
       </c>
       <c r="Q145">
@@ -13152,11 +13156,11 @@
         <f t="shared" si="6"/>
         <v>14.329999999999998</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="4">
         <f t="shared" si="7"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U145">
+      <c r="U145" s="4">
         <f t="shared" si="8"/>
         <v>0.23491803278688522</v>
       </c>
@@ -13207,7 +13211,7 @@
       <c r="O146">
         <v>44</v>
       </c>
-      <c r="P146">
+      <c r="P146" s="4">
         <v>0.255</v>
       </c>
       <c r="Q146">
@@ -13220,11 +13224,11 @@
         <f t="shared" si="6"/>
         <v>13.100000000000001</v>
       </c>
-      <c r="T146">
+      <c r="T146" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U146">
+      <c r="U146" s="4">
         <f t="shared" si="8"/>
         <v>0.21475409836065576</v>
       </c>
@@ -13275,7 +13279,7 @@
       <c r="O147">
         <v>44</v>
       </c>
-      <c r="P147">
+      <c r="P147" s="4">
         <v>0.24199999999999999</v>
       </c>
       <c r="Q147">
@@ -13288,11 +13292,11 @@
         <f t="shared" si="6"/>
         <v>12.18</v>
       </c>
-      <c r="T147">
+      <c r="T147" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U147">
+      <c r="U147" s="4">
         <f t="shared" si="8"/>
         <v>0.19967213114754098</v>
       </c>
@@ -13343,7 +13347,7 @@
       <c r="O148">
         <v>44</v>
       </c>
-      <c r="P148">
+      <c r="P148" s="4">
         <v>0.23100000000000001</v>
       </c>
       <c r="Q148">
@@ -13356,11 +13360,11 @@
         <f t="shared" si="6"/>
         <v>16.329999999999998</v>
       </c>
-      <c r="T148">
+      <c r="T148" s="4">
         <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="U148">
+      <c r="U148" s="4">
         <f t="shared" si="8"/>
         <v>0.26770491803278684</v>
       </c>
@@ -13411,7 +13415,7 @@
       <c r="O149">
         <v>44</v>
       </c>
-      <c r="P149">
+      <c r="P149" s="4">
         <v>0.218</v>
       </c>
       <c r="Q149">
@@ -13424,11 +13428,11 @@
         <f t="shared" si="6"/>
         <v>8.3299999999999983</v>
       </c>
-      <c r="T149">
+      <c r="T149" s="4">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U149">
+      <c r="U149" s="4">
         <f t="shared" si="8"/>
         <v>0.13655737704918031</v>
       </c>
@@ -13479,7 +13483,7 @@
       <c r="O150">
         <v>44</v>
       </c>
-      <c r="P150">
+      <c r="P150" s="4">
         <v>0.21099999999999999</v>
       </c>
       <c r="Q150">
@@ -13492,11 +13496,11 @@
         <f t="shared" si="6"/>
         <v>13.83</v>
       </c>
-      <c r="T150">
+      <c r="T150" s="4">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="U150">
+      <c r="U150" s="4">
         <f t="shared" si="8"/>
         <v>0.22672131147540983</v>
       </c>
@@ -13547,7 +13551,7 @@
       <c r="O151">
         <v>44</v>
       </c>
-      <c r="P151">
+      <c r="P151" s="4">
         <v>0.151</v>
       </c>
       <c r="Q151">
@@ -13560,11 +13564,11 @@
         <f t="shared" si="6"/>
         <v>6.33</v>
       </c>
-      <c r="T151">
+      <c r="T151" s="4">
         <f t="shared" si="7"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U151">
+      <c r="U151" s="4">
         <f t="shared" si="8"/>
         <v>0.10377049180327869</v>
       </c>
@@ -13615,7 +13619,7 @@
       <c r="O152">
         <v>44</v>
       </c>
-      <c r="P152">
+      <c r="P152" s="4">
         <v>0.13300000000000001</v>
       </c>
       <c r="Q152">
@@ -13628,11 +13632,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T152">
+      <c r="T152" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U152">
+      <c r="U152" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -13683,7 +13687,7 @@
       <c r="O153">
         <v>44</v>
       </c>
-      <c r="P153">
+      <c r="P153" s="4">
         <v>0.746</v>
       </c>
       <c r="Q153">
@@ -13696,11 +13700,11 @@
         <f t="shared" si="6"/>
         <v>41.92</v>
       </c>
-      <c r="T153">
+      <c r="T153" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="U153">
+      <c r="U153" s="4">
         <f t="shared" si="8"/>
         <v>0.68721311475409841</v>
       </c>
@@ -13751,7 +13755,7 @@
       <c r="O154">
         <v>44</v>
       </c>
-      <c r="P154">
+      <c r="P154" s="4">
         <v>0.746</v>
       </c>
       <c r="Q154">
@@ -13764,11 +13768,11 @@
         <f t="shared" si="6"/>
         <v>42.92</v>
       </c>
-      <c r="T154">
+      <c r="T154" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U154">
+      <c r="U154" s="4">
         <f t="shared" si="8"/>
         <v>0.70360655737704925</v>
       </c>
@@ -13819,7 +13823,7 @@
       <c r="O155">
         <v>44</v>
       </c>
-      <c r="P155">
+      <c r="P155" s="4">
         <v>0.70299999999999996</v>
       </c>
       <c r="Q155">
@@ -13832,11 +13836,11 @@
         <f t="shared" si="6"/>
         <v>40.75</v>
       </c>
-      <c r="T155">
+      <c r="T155" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U155">
+      <c r="U155" s="4">
         <f t="shared" si="8"/>
         <v>0.66803278688524592</v>
       </c>
@@ -13887,7 +13891,7 @@
       <c r="O156">
         <v>44</v>
       </c>
-      <c r="P156">
+      <c r="P156" s="4">
         <v>0.67100000000000004</v>
       </c>
       <c r="Q156">
@@ -13900,11 +13904,11 @@
         <f t="shared" si="6"/>
         <v>36.33</v>
       </c>
-      <c r="T156">
+      <c r="T156" s="4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="U156">
+      <c r="U156" s="4">
         <f t="shared" si="8"/>
         <v>0.59557377049180327</v>
       </c>
@@ -13955,7 +13959,7 @@
       <c r="O157">
         <v>44</v>
       </c>
-      <c r="P157">
+      <c r="P157" s="4">
         <v>0.64600000000000002</v>
       </c>
       <c r="Q157">
@@ -13968,11 +13972,11 @@
         <f t="shared" si="6"/>
         <v>35.42</v>
       </c>
-      <c r="T157">
+      <c r="T157" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U157">
+      <c r="U157" s="4">
         <f t="shared" si="8"/>
         <v>0.58065573770491807</v>
       </c>
@@ -14023,7 +14027,7 @@
       <c r="O158">
         <v>44</v>
       </c>
-      <c r="P158">
+      <c r="P158" s="4">
         <v>0.63</v>
       </c>
       <c r="Q158">
@@ -14036,11 +14040,11 @@
         <f t="shared" si="6"/>
         <v>34.25</v>
       </c>
-      <c r="T158">
+      <c r="T158" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U158">
+      <c r="U158" s="4">
         <f t="shared" si="8"/>
         <v>0.56147540983606559</v>
       </c>
@@ -14091,7 +14095,7 @@
       <c r="O159">
         <v>44</v>
       </c>
-      <c r="P159">
+      <c r="P159" s="4">
         <v>0.61799999999999999</v>
       </c>
       <c r="Q159">
@@ -14104,11 +14108,11 @@
         <f t="shared" si="6"/>
         <v>34.33</v>
       </c>
-      <c r="T159">
+      <c r="T159" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U159">
+      <c r="U159" s="4">
         <f t="shared" si="8"/>
         <v>0.56278688524590159</v>
       </c>
@@ -14159,7 +14163,7 @@
       <c r="O160">
         <v>44</v>
       </c>
-      <c r="P160">
+      <c r="P160" s="4">
         <v>0.61699999999999999</v>
       </c>
       <c r="Q160">
@@ -14172,11 +14176,11 @@
         <f t="shared" si="6"/>
         <v>34.25</v>
       </c>
-      <c r="T160">
+      <c r="T160" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U160">
+      <c r="U160" s="4">
         <f t="shared" si="8"/>
         <v>0.56147540983606559</v>
       </c>
@@ -14227,7 +14231,7 @@
       <c r="O161">
         <v>44</v>
       </c>
-      <c r="P161">
+      <c r="P161" s="4">
         <v>0.61599999999999999</v>
       </c>
       <c r="Q161">
@@ -14240,11 +14244,11 @@
         <f t="shared" si="6"/>
         <v>36.17</v>
       </c>
-      <c r="T161">
+      <c r="T161" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U161">
+      <c r="U161" s="4">
         <f t="shared" si="8"/>
         <v>0.59295081967213115</v>
       </c>
@@ -14295,7 +14299,7 @@
       <c r="O162">
         <v>44</v>
       </c>
-      <c r="P162">
+      <c r="P162" s="4">
         <v>0.59</v>
       </c>
       <c r="Q162">
@@ -14308,11 +14312,11 @@
         <f t="shared" si="6"/>
         <v>35.25</v>
       </c>
-      <c r="T162">
+      <c r="T162" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U162">
+      <c r="U162" s="4">
         <f t="shared" si="8"/>
         <v>0.57786885245901642</v>
       </c>
@@ -14363,7 +14367,7 @@
       <c r="O163">
         <v>44</v>
       </c>
-      <c r="P163">
+      <c r="P163" s="4">
         <v>0.58699999999999997</v>
       </c>
       <c r="Q163">
@@ -14376,11 +14380,11 @@
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="T163">
+      <c r="T163" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U163">
+      <c r="U163" s="4">
         <f t="shared" si="8"/>
         <v>0.57377049180327866</v>
       </c>
@@ -14431,7 +14435,7 @@
       <c r="O164">
         <v>44</v>
       </c>
-      <c r="P164">
+      <c r="P164" s="4">
         <v>0.57399999999999995</v>
       </c>
       <c r="Q164">
@@ -14444,11 +14448,11 @@
         <f t="shared" si="6"/>
         <v>34.08</v>
       </c>
-      <c r="T164">
+      <c r="T164" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U164">
+      <c r="U164" s="4">
         <f t="shared" si="8"/>
         <v>0.55868852459016394</v>
       </c>
@@ -14499,7 +14503,7 @@
       <c r="O165">
         <v>44</v>
       </c>
-      <c r="P165">
+      <c r="P165" s="4">
         <v>0.57199999999999995</v>
       </c>
       <c r="Q165">
@@ -14512,11 +14516,11 @@
         <f t="shared" si="6"/>
         <v>31.92</v>
       </c>
-      <c r="T165">
+      <c r="T165" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U165">
+      <c r="U165" s="4">
         <f t="shared" si="8"/>
         <v>0.52327868852459014</v>
       </c>
@@ -14567,7 +14571,7 @@
       <c r="O166">
         <v>44</v>
       </c>
-      <c r="P166">
+      <c r="P166" s="4">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q166">
@@ -14580,11 +14584,11 @@
         <f t="shared" si="6"/>
         <v>30.75</v>
       </c>
-      <c r="T166">
+      <c r="T166" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U166">
+      <c r="U166" s="4">
         <f t="shared" si="8"/>
         <v>0.50409836065573765</v>
       </c>
@@ -14635,7 +14639,7 @@
       <c r="O167">
         <v>44</v>
       </c>
-      <c r="P167">
+      <c r="P167" s="4">
         <v>0.56499999999999995</v>
       </c>
       <c r="Q167">
@@ -14648,11 +14652,11 @@
         <f t="shared" si="6"/>
         <v>29.340000000000003</v>
       </c>
-      <c r="T167">
+      <c r="T167" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U167">
+      <c r="U167" s="4">
         <f t="shared" si="8"/>
         <v>0.4809836065573771</v>
       </c>
@@ -14703,7 +14707,7 @@
       <c r="O168">
         <v>44</v>
       </c>
-      <c r="P168">
+      <c r="P168" s="4">
         <v>0.55100000000000005</v>
       </c>
       <c r="Q168">
@@ -14716,11 +14720,11 @@
         <f t="shared" si="6"/>
         <v>29.340000000000003</v>
       </c>
-      <c r="T168">
+      <c r="T168" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U168">
+      <c r="U168" s="4">
         <f t="shared" si="8"/>
         <v>0.4809836065573771</v>
       </c>
@@ -14771,7 +14775,7 @@
       <c r="O169">
         <v>44</v>
       </c>
-      <c r="P169">
+      <c r="P169" s="4">
         <v>0.54900000000000004</v>
       </c>
       <c r="Q169">
@@ -14784,11 +14788,11 @@
         <f t="shared" si="6"/>
         <v>30.159999999999997</v>
       </c>
-      <c r="T169">
+      <c r="T169" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U169">
+      <c r="U169" s="4">
         <f t="shared" si="8"/>
         <v>0.49442622950819665</v>
       </c>
@@ -14839,7 +14843,7 @@
       <c r="O170">
         <v>44</v>
       </c>
-      <c r="P170">
+      <c r="P170" s="4">
         <v>0.54900000000000004</v>
       </c>
       <c r="Q170">
@@ -14852,11 +14856,11 @@
         <f t="shared" si="6"/>
         <v>35.159999999999997</v>
       </c>
-      <c r="T170">
+      <c r="T170" s="4">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U170">
+      <c r="U170" s="4">
         <f t="shared" si="8"/>
         <v>0.57639344262295078</v>
       </c>
@@ -14907,7 +14911,7 @@
       <c r="O171">
         <v>44</v>
       </c>
-      <c r="P171">
+      <c r="P171" s="4">
         <v>0.54400000000000004</v>
       </c>
       <c r="Q171">
@@ -14920,11 +14924,11 @@
         <f t="shared" si="6"/>
         <v>31.83</v>
       </c>
-      <c r="T171">
+      <c r="T171" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U171">
+      <c r="U171" s="4">
         <f t="shared" si="8"/>
         <v>0.52180327868852461</v>
       </c>
@@ -14975,7 +14979,7 @@
       <c r="O172">
         <v>44</v>
       </c>
-      <c r="P172">
+      <c r="P172" s="4">
         <v>0.54300000000000004</v>
       </c>
       <c r="Q172">
@@ -14988,11 +14992,11 @@
         <f t="shared" si="6"/>
         <v>31.75</v>
       </c>
-      <c r="T172">
+      <c r="T172" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U172">
+      <c r="U172" s="4">
         <f t="shared" si="8"/>
         <v>0.52049180327868849</v>
       </c>
@@ -15043,7 +15047,7 @@
       <c r="O173">
         <v>44</v>
       </c>
-      <c r="P173">
+      <c r="P173" s="4">
         <v>0.53900000000000003</v>
       </c>
       <c r="Q173">
@@ -15056,11 +15060,11 @@
         <f t="shared" si="6"/>
         <v>30.409999999999997</v>
       </c>
-      <c r="T173">
+      <c r="T173" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U173">
+      <c r="U173" s="4">
         <f t="shared" si="8"/>
         <v>0.49852459016393436</v>
       </c>
@@ -15111,7 +15115,7 @@
       <c r="O174">
         <v>44</v>
       </c>
-      <c r="P174">
+      <c r="P174" s="4">
         <v>0.53200000000000003</v>
       </c>
       <c r="Q174">
@@ -15124,11 +15128,11 @@
         <f t="shared" si="6"/>
         <v>27.93</v>
       </c>
-      <c r="T174">
+      <c r="T174" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U174">
+      <c r="U174" s="4">
         <f t="shared" si="8"/>
         <v>0.45786885245901637</v>
       </c>
@@ -15179,7 +15183,7 @@
       <c r="O175">
         <v>44</v>
       </c>
-      <c r="P175">
+      <c r="P175" s="4">
         <v>0.53</v>
       </c>
       <c r="Q175">
@@ -15192,11 +15196,11 @@
         <f t="shared" si="6"/>
         <v>30.75</v>
       </c>
-      <c r="T175">
+      <c r="T175" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U175">
+      <c r="U175" s="4">
         <f t="shared" si="8"/>
         <v>0.50409836065573765</v>
       </c>
@@ -15247,7 +15251,7 @@
       <c r="O176">
         <v>44</v>
       </c>
-      <c r="P176">
+      <c r="P176" s="4">
         <v>0.52900000000000003</v>
       </c>
       <c r="Q176">
@@ -15260,11 +15264,11 @@
         <f t="shared" si="6"/>
         <v>31.659999999999997</v>
       </c>
-      <c r="T176">
+      <c r="T176" s="4">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U176">
+      <c r="U176" s="4">
         <f t="shared" si="8"/>
         <v>0.51901639344262285</v>
       </c>
@@ -15315,7 +15319,7 @@
       <c r="O177">
         <v>44</v>
       </c>
-      <c r="P177">
+      <c r="P177" s="4">
         <v>0.52700000000000002</v>
       </c>
       <c r="Q177">
@@ -15328,11 +15332,11 @@
         <f t="shared" si="6"/>
         <v>26.5</v>
       </c>
-      <c r="T177">
+      <c r="T177" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U177">
+      <c r="U177" s="4">
         <f t="shared" si="8"/>
         <v>0.4344262295081967</v>
       </c>
@@ -15383,7 +15387,7 @@
       <c r="O178">
         <v>44</v>
       </c>
-      <c r="P178">
+      <c r="P178" s="4">
         <v>0.51600000000000001</v>
       </c>
       <c r="Q178">
@@ -15396,11 +15400,11 @@
         <f t="shared" si="6"/>
         <v>31.67</v>
       </c>
-      <c r="T178">
+      <c r="T178" s="4">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="U178">
+      <c r="U178" s="4">
         <f t="shared" si="8"/>
         <v>0.51918032786885249</v>
       </c>
@@ -15451,7 +15455,7 @@
       <c r="O179">
         <v>44</v>
       </c>
-      <c r="P179">
+      <c r="P179" s="4">
         <v>0.51500000000000001</v>
       </c>
       <c r="Q179">
@@ -15464,11 +15468,11 @@
         <f t="shared" si="6"/>
         <v>25.659999999999997</v>
       </c>
-      <c r="T179">
+      <c r="T179" s="4">
         <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U179">
+      <c r="U179" s="4">
         <f t="shared" si="8"/>
         <v>0.42065573770491799</v>
       </c>
@@ -15519,7 +15523,7 @@
       <c r="O180">
         <v>44</v>
       </c>
-      <c r="P180">
+      <c r="P180" s="4">
         <v>0.51200000000000001</v>
       </c>
       <c r="Q180">
@@ -15532,11 +15536,11 @@
         <f t="shared" si="6"/>
         <v>28.43</v>
       </c>
-      <c r="T180">
+      <c r="T180" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U180">
+      <c r="U180" s="4">
         <f t="shared" si="8"/>
         <v>0.46606557377049179</v>
       </c>
@@ -15587,7 +15591,7 @@
       <c r="O181">
         <v>44</v>
       </c>
-      <c r="P181">
+      <c r="P181" s="4">
         <v>0.51200000000000001</v>
       </c>
       <c r="Q181">
@@ -15600,11 +15604,11 @@
         <f t="shared" si="6"/>
         <v>27.42</v>
       </c>
-      <c r="T181">
+      <c r="T181" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U181">
+      <c r="U181" s="4">
         <f t="shared" si="8"/>
         <v>0.44950819672131148</v>
       </c>
@@ -15655,7 +15659,7 @@
       <c r="O182">
         <v>44</v>
       </c>
-      <c r="P182">
+      <c r="P182" s="4">
         <v>0.51</v>
       </c>
       <c r="Q182">
@@ -15668,11 +15672,11 @@
         <f t="shared" si="6"/>
         <v>27.270000000000003</v>
       </c>
-      <c r="T182">
+      <c r="T182" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U182">
+      <c r="U182" s="4">
         <f t="shared" si="8"/>
         <v>0.44704918032786889</v>
       </c>
@@ -15723,7 +15727,7 @@
       <c r="O183">
         <v>44</v>
       </c>
-      <c r="P183">
+      <c r="P183" s="4">
         <v>0.5</v>
       </c>
       <c r="Q183">
@@ -15736,11 +15740,11 @@
         <f t="shared" si="6"/>
         <v>29.509999999999998</v>
       </c>
-      <c r="T183">
+      <c r="T183" s="4">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U183">
+      <c r="U183" s="4">
         <f t="shared" si="8"/>
         <v>0.48377049180327863</v>
       </c>
@@ -15791,7 +15795,7 @@
       <c r="O184">
         <v>44</v>
       </c>
-      <c r="P184">
+      <c r="P184" s="4">
         <v>0.5</v>
       </c>
       <c r="Q184">
@@ -15804,11 +15808,11 @@
         <f t="shared" si="6"/>
         <v>26.5</v>
       </c>
-      <c r="T184">
+      <c r="T184" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U184">
+      <c r="U184" s="4">
         <f t="shared" si="8"/>
         <v>0.4344262295081967</v>
       </c>
@@ -15859,7 +15863,7 @@
       <c r="O185">
         <v>44</v>
       </c>
-      <c r="P185">
+      <c r="P185" s="4">
         <v>0.495</v>
       </c>
       <c r="Q185">
@@ -15872,11 +15876,11 @@
         <f t="shared" si="6"/>
         <v>26.1</v>
       </c>
-      <c r="T185">
+      <c r="T185" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U185">
+      <c r="U185" s="4">
         <f t="shared" si="8"/>
         <v>0.4278688524590164</v>
       </c>
@@ -15927,7 +15931,7 @@
       <c r="O186">
         <v>44</v>
       </c>
-      <c r="P186">
+      <c r="P186" s="4">
         <v>0.49</v>
       </c>
       <c r="Q186">
@@ -15940,11 +15944,11 @@
         <f t="shared" si="6"/>
         <v>26.75</v>
       </c>
-      <c r="T186">
+      <c r="T186" s="4">
         <f t="shared" si="7"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U186">
+      <c r="U186" s="4">
         <f t="shared" si="8"/>
         <v>0.43852459016393441</v>
       </c>
@@ -15995,7 +15999,7 @@
       <c r="O187">
         <v>44</v>
       </c>
-      <c r="P187">
+      <c r="P187" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="Q187">
@@ -16008,11 +16012,11 @@
         <f t="shared" si="6"/>
         <v>27.58</v>
       </c>
-      <c r="T187">
+      <c r="T187" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U187">
+      <c r="U187" s="4">
         <f t="shared" si="8"/>
         <v>0.4521311475409836</v>
       </c>
@@ -16063,7 +16067,7 @@
       <c r="O188">
         <v>44</v>
       </c>
-      <c r="P188">
+      <c r="P188" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="Q188">
@@ -16076,11 +16080,11 @@
         <f t="shared" si="6"/>
         <v>25.58</v>
       </c>
-      <c r="T188">
+      <c r="T188" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U188">
+      <c r="U188" s="4">
         <f t="shared" si="8"/>
         <v>0.41934426229508193</v>
       </c>
@@ -16131,7 +16135,7 @@
       <c r="O189">
         <v>44</v>
       </c>
-      <c r="P189">
+      <c r="P189" s="4">
         <v>0.48699999999999999</v>
       </c>
       <c r="Q189">
@@ -16144,11 +16148,11 @@
         <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
-      <c r="T189">
+      <c r="T189" s="4">
         <f t="shared" si="7"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U189">
+      <c r="U189" s="4">
         <f t="shared" si="8"/>
         <v>0.41803278688524592</v>
       </c>
@@ -16199,7 +16203,7 @@
       <c r="O190">
         <v>44</v>
       </c>
-      <c r="P190">
+      <c r="P190" s="4">
         <v>0.48</v>
       </c>
       <c r="Q190">
@@ -16212,11 +16216,11 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="T190">
+      <c r="T190" s="4">
         <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U190">
+      <c r="U190" s="4">
         <f t="shared" si="8"/>
         <v>0.39344262295081966</v>
       </c>
@@ -16267,7 +16271,7 @@
       <c r="O191">
         <v>44</v>
       </c>
-      <c r="P191">
+      <c r="P191" s="4">
         <v>0.48</v>
       </c>
       <c r="Q191">
@@ -16280,11 +16284,11 @@
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="T191">
+      <c r="T191" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U191">
+      <c r="U191" s="4">
         <f t="shared" si="8"/>
         <v>0.44262295081967212</v>
       </c>
@@ -16335,7 +16339,7 @@
       <c r="O192">
         <v>44</v>
       </c>
-      <c r="P192">
+      <c r="P192" s="4">
         <v>0.47899999999999998</v>
       </c>
       <c r="Q192">
@@ -16348,11 +16352,11 @@
         <f t="shared" si="6"/>
         <v>26.939999999999998</v>
       </c>
-      <c r="T192">
+      <c r="T192" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U192">
+      <c r="U192" s="4">
         <f t="shared" si="8"/>
         <v>0.44163934426229506</v>
       </c>
@@ -16403,7 +16407,7 @@
       <c r="O193">
         <v>44</v>
       </c>
-      <c r="P193">
+      <c r="P193" s="4">
         <v>0.46400000000000002</v>
       </c>
       <c r="Q193">
@@ -16416,11 +16420,11 @@
         <f t="shared" si="6"/>
         <v>26.83</v>
       </c>
-      <c r="T193">
+      <c r="T193" s="4">
         <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U193">
+      <c r="U193" s="4">
         <f t="shared" si="8"/>
         <v>0.43983606557377047</v>
       </c>
@@ -16471,7 +16475,7 @@
       <c r="O194">
         <v>44</v>
       </c>
-      <c r="P194">
+      <c r="P194" s="4">
         <v>0.45900000000000002</v>
       </c>
       <c r="Q194">
@@ -16484,11 +16488,11 @@
         <f t="shared" si="6"/>
         <v>25.42</v>
       </c>
-      <c r="T194">
+      <c r="T194" s="4">
         <f t="shared" si="7"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U194">
+      <c r="U194" s="4">
         <f t="shared" si="8"/>
         <v>0.41672131147540986</v>
       </c>
@@ -16539,7 +16543,7 @@
       <c r="O195">
         <v>44</v>
       </c>
-      <c r="P195">
+      <c r="P195" s="4">
         <v>0.45800000000000002</v>
       </c>
       <c r="Q195">
@@ -16552,11 +16556,11 @@
         <f t="shared" ref="S195:S222" si="9">$L195-$R195</f>
         <v>23.33</v>
       </c>
-      <c r="T195">
+      <c r="T195" s="4">
         <f t="shared" ref="T195:T222" si="10">$R195/14</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U195">
+      <c r="U195" s="4">
         <f t="shared" ref="U195:U222" si="11">$S195/61</f>
         <v>0.3824590163934426</v>
       </c>
@@ -16607,7 +16611,7 @@
       <c r="O196">
         <v>44</v>
       </c>
-      <c r="P196">
+      <c r="P196" s="4">
         <v>0.45600000000000002</v>
       </c>
       <c r="Q196">
@@ -16620,11 +16624,11 @@
         <f t="shared" si="9"/>
         <v>26.18</v>
       </c>
-      <c r="T196">
+      <c r="T196" s="4">
         <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U196">
+      <c r="U196" s="4">
         <f t="shared" si="11"/>
         <v>0.42918032786885246</v>
       </c>
@@ -16675,7 +16679,7 @@
       <c r="O197">
         <v>44</v>
       </c>
-      <c r="P197">
+      <c r="P197" s="4">
         <v>0.44900000000000001</v>
       </c>
       <c r="Q197">
@@ -16688,11 +16692,11 @@
         <f t="shared" si="9"/>
         <v>25.68</v>
       </c>
-      <c r="T197">
+      <c r="T197" s="4">
         <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U197">
+      <c r="U197" s="4">
         <f t="shared" si="11"/>
         <v>0.42098360655737704</v>
       </c>
@@ -16743,7 +16747,7 @@
       <c r="O198">
         <v>44</v>
       </c>
-      <c r="P198">
+      <c r="P198" s="4">
         <v>0.44900000000000001</v>
       </c>
       <c r="Q198">
@@ -16756,11 +16760,11 @@
         <f t="shared" si="9"/>
         <v>22.67</v>
       </c>
-      <c r="T198">
+      <c r="T198" s="4">
         <f t="shared" si="10"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="U198">
+      <c r="U198" s="4">
         <f t="shared" si="11"/>
         <v>0.37163934426229511</v>
       </c>
@@ -16811,7 +16815,7 @@
       <c r="O199">
         <v>44</v>
       </c>
-      <c r="P199">
+      <c r="P199" s="4">
         <v>0.44900000000000001</v>
       </c>
       <c r="Q199">
@@ -16824,11 +16828,11 @@
         <f t="shared" si="9"/>
         <v>26.659999999999997</v>
       </c>
-      <c r="T199">
+      <c r="T199" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U199">
+      <c r="U199" s="4">
         <f t="shared" si="11"/>
         <v>0.43704918032786877</v>
       </c>
@@ -16879,7 +16883,7 @@
       <c r="O200">
         <v>44</v>
       </c>
-      <c r="P200">
+      <c r="P200" s="4">
         <v>0.438</v>
       </c>
       <c r="Q200">
@@ -16892,11 +16896,11 @@
         <f t="shared" si="9"/>
         <v>28.83</v>
       </c>
-      <c r="T200">
+      <c r="T200" s="4">
         <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U200">
+      <c r="U200" s="4">
         <f t="shared" si="11"/>
         <v>0.47262295081967209</v>
       </c>
@@ -16947,7 +16951,7 @@
       <c r="O201">
         <v>44</v>
       </c>
-      <c r="P201">
+      <c r="P201" s="4">
         <v>0.43</v>
       </c>
       <c r="Q201">
@@ -16960,11 +16964,11 @@
         <f t="shared" si="9"/>
         <v>26.259999999999998</v>
       </c>
-      <c r="T201">
+      <c r="T201" s="4">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U201">
+      <c r="U201" s="4">
         <f t="shared" si="11"/>
         <v>0.43049180327868847</v>
       </c>
@@ -17015,7 +17019,7 @@
       <c r="O202">
         <v>44</v>
       </c>
-      <c r="P202">
+      <c r="P202" s="4">
         <v>0.42899999999999999</v>
       </c>
       <c r="Q202">
@@ -17028,11 +17032,11 @@
         <f t="shared" si="9"/>
         <v>24.159999999999997</v>
       </c>
-      <c r="T202">
+      <c r="T202" s="4">
         <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U202">
+      <c r="U202" s="4">
         <f t="shared" si="11"/>
         <v>0.39606557377049173</v>
       </c>
@@ -17083,7 +17087,7 @@
       <c r="O203">
         <v>44</v>
       </c>
-      <c r="P203">
+      <c r="P203" s="4">
         <v>0.42699999999999999</v>
       </c>
       <c r="Q203">
@@ -17096,11 +17100,11 @@
         <f t="shared" si="9"/>
         <v>23.009999999999998</v>
       </c>
-      <c r="T203">
+      <c r="T203" s="4">
         <f t="shared" si="10"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U203">
+      <c r="U203" s="4">
         <f t="shared" si="11"/>
         <v>0.37721311475409836</v>
       </c>
@@ -17151,7 +17155,7 @@
       <c r="O204">
         <v>44</v>
       </c>
-      <c r="P204">
+      <c r="P204" s="4">
         <v>0.42</v>
       </c>
       <c r="Q204">
@@ -17164,11 +17168,11 @@
         <f t="shared" si="9"/>
         <v>18.510000000000002</v>
       </c>
-      <c r="T204">
+      <c r="T204" s="4">
         <f t="shared" si="10"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="U204">
+      <c r="U204" s="4">
         <f t="shared" si="11"/>
         <v>0.3034426229508197</v>
       </c>
@@ -17219,7 +17223,7 @@
       <c r="O205">
         <v>44</v>
       </c>
-      <c r="P205">
+      <c r="P205" s="4">
         <v>0.40500000000000003</v>
       </c>
       <c r="Q205">
@@ -17232,11 +17236,11 @@
         <f t="shared" si="9"/>
         <v>21.35</v>
       </c>
-      <c r="T205">
+      <c r="T205" s="4">
         <f t="shared" si="10"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U205">
+      <c r="U205" s="4">
         <f t="shared" si="11"/>
         <v>0.35000000000000003</v>
       </c>
@@ -17287,7 +17291,7 @@
       <c r="O206">
         <v>44</v>
       </c>
-      <c r="P206">
+      <c r="P206" s="4">
         <v>0.39800000000000002</v>
       </c>
       <c r="Q206">
@@ -17300,11 +17304,11 @@
         <f t="shared" si="9"/>
         <v>27.83</v>
       </c>
-      <c r="T206">
+      <c r="T206" s="4">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="U206">
+      <c r="U206" s="4">
         <f t="shared" si="11"/>
         <v>0.45622950819672126</v>
       </c>
@@ -17355,7 +17359,7 @@
       <c r="O207">
         <v>44</v>
       </c>
-      <c r="P207">
+      <c r="P207" s="4">
         <v>0.39800000000000002</v>
       </c>
       <c r="Q207">
@@ -17368,11 +17372,11 @@
         <f t="shared" si="9"/>
         <v>17.829999999999998</v>
       </c>
-      <c r="T207">
+      <c r="T207" s="4">
         <f t="shared" si="10"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U207">
+      <c r="U207" s="4">
         <f t="shared" si="11"/>
         <v>0.2922950819672131</v>
       </c>
@@ -17423,7 +17427,7 @@
       <c r="O208">
         <v>44</v>
       </c>
-      <c r="P208">
+      <c r="P208" s="4">
         <v>0.39500000000000002</v>
       </c>
       <c r="Q208">
@@ -17436,11 +17440,11 @@
         <f t="shared" si="9"/>
         <v>22.6</v>
       </c>
-      <c r="T208">
+      <c r="T208" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U208">
+      <c r="U208" s="4">
         <f t="shared" si="11"/>
         <v>0.37049180327868853</v>
       </c>
@@ -17491,7 +17495,7 @@
       <c r="O209">
         <v>44</v>
       </c>
-      <c r="P209">
+      <c r="P209" s="4">
         <v>0.39200000000000002</v>
       </c>
       <c r="Q209">
@@ -17504,11 +17508,11 @@
         <f t="shared" si="9"/>
         <v>22.41</v>
       </c>
-      <c r="T209">
+      <c r="T209" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U209">
+      <c r="U209" s="4">
         <f t="shared" si="11"/>
         <v>0.36737704918032787</v>
       </c>
@@ -17559,7 +17563,7 @@
       <c r="O210">
         <v>44</v>
       </c>
-      <c r="P210">
+      <c r="P210" s="4">
         <v>0.39100000000000001</v>
       </c>
       <c r="Q210">
@@ -17572,11 +17576,11 @@
         <f t="shared" si="9"/>
         <v>22.33</v>
       </c>
-      <c r="T210">
+      <c r="T210" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U210">
+      <c r="U210" s="4">
         <f t="shared" si="11"/>
         <v>0.36606557377049176</v>
       </c>
@@ -17627,7 +17631,7 @@
       <c r="O211">
         <v>44</v>
       </c>
-      <c r="P211">
+      <c r="P211" s="4">
         <v>0.39</v>
       </c>
       <c r="Q211">
@@ -17640,11 +17644,11 @@
         <f t="shared" si="9"/>
         <v>19.25</v>
       </c>
-      <c r="T211">
+      <c r="T211" s="4">
         <f t="shared" si="10"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="U211">
+      <c r="U211" s="4">
         <f t="shared" si="11"/>
         <v>0.3155737704918033</v>
       </c>
@@ -17695,7 +17699,7 @@
       <c r="O212">
         <v>44</v>
       </c>
-      <c r="P212">
+      <c r="P212" s="4">
         <v>0.38700000000000001</v>
       </c>
       <c r="Q212">
@@ -17708,11 +17712,11 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="T212">
+      <c r="T212" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U212">
+      <c r="U212" s="4">
         <f t="shared" si="11"/>
         <v>0.36065573770491804</v>
       </c>
@@ -17763,7 +17767,7 @@
       <c r="O213">
         <v>44</v>
       </c>
-      <c r="P213">
+      <c r="P213" s="4">
         <v>0.38500000000000001</v>
       </c>
       <c r="Q213">
@@ -17776,11 +17780,11 @@
         <f t="shared" si="9"/>
         <v>26.91</v>
       </c>
-      <c r="T213">
+      <c r="T213" s="4">
         <f t="shared" si="10"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="U213">
+      <c r="U213" s="4">
         <f t="shared" si="11"/>
         <v>0.44114754098360653</v>
       </c>
@@ -17831,7 +17835,7 @@
       <c r="O214">
         <v>44</v>
       </c>
-      <c r="P214">
+      <c r="P214" s="4">
         <v>0.38</v>
       </c>
       <c r="Q214">
@@ -17844,11 +17848,11 @@
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="T214">
+      <c r="T214" s="4">
         <f t="shared" si="10"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U214">
+      <c r="U214" s="4">
         <f t="shared" si="11"/>
         <v>0.31967213114754101</v>
       </c>
@@ -17899,7 +17903,7 @@
       <c r="O215">
         <v>44</v>
       </c>
-      <c r="P215">
+      <c r="P215" s="4">
         <v>0.373</v>
       </c>
       <c r="Q215">
@@ -17912,11 +17916,11 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="T215">
+      <c r="T215" s="4">
         <f t="shared" si="10"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U215">
+      <c r="U215" s="4">
         <f t="shared" si="11"/>
         <v>0.37704918032786883</v>
       </c>
@@ -17967,7 +17971,7 @@
       <c r="O216">
         <v>44</v>
       </c>
-      <c r="P216">
+      <c r="P216" s="4">
         <v>0.373</v>
       </c>
       <c r="Q216">
@@ -17980,11 +17984,11 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="T216">
+      <c r="T216" s="4">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="U216">
+      <c r="U216" s="4">
         <f t="shared" si="11"/>
         <v>0.34426229508196721</v>
       </c>
@@ -18035,7 +18039,7 @@
       <c r="O217">
         <v>44</v>
       </c>
-      <c r="P217">
+      <c r="P217" s="4">
         <v>0.372</v>
       </c>
       <c r="Q217">
@@ -18048,11 +18052,11 @@
         <f t="shared" si="9"/>
         <v>22.93</v>
       </c>
-      <c r="T217">
+      <c r="T217" s="4">
         <f t="shared" si="10"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="U217">
+      <c r="U217" s="4">
         <f t="shared" si="11"/>
         <v>0.37590163934426229</v>
       </c>
@@ -18103,7 +18107,7 @@
       <c r="O218">
         <v>44</v>
       </c>
-      <c r="P218">
+      <c r="P218" s="4">
         <v>0.35499999999999998</v>
       </c>
       <c r="Q218">
@@ -18116,11 +18120,11 @@
         <f t="shared" si="9"/>
         <v>23.66</v>
       </c>
-      <c r="T218">
+      <c r="T218" s="4">
         <f t="shared" si="10"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U218">
+      <c r="U218" s="4">
         <f t="shared" si="11"/>
         <v>0.38786885245901642</v>
       </c>
@@ -18171,7 +18175,7 @@
       <c r="O219">
         <v>44</v>
       </c>
-      <c r="P219">
+      <c r="P219" s="4">
         <v>0.35499999999999998</v>
       </c>
       <c r="Q219">
@@ -18184,11 +18188,11 @@
         <f t="shared" si="9"/>
         <v>23.6</v>
       </c>
-      <c r="T219">
+      <c r="T219" s="4">
         <f t="shared" si="10"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="U219">
+      <c r="U219" s="4">
         <f t="shared" si="11"/>
         <v>0.38688524590163936</v>
       </c>
@@ -18239,7 +18243,7 @@
       <c r="O220">
         <v>44</v>
       </c>
-      <c r="P220">
+      <c r="P220" s="4">
         <v>0.34300000000000003</v>
       </c>
       <c r="Q220">
@@ -18252,11 +18256,11 @@
         <f t="shared" si="9"/>
         <v>19.75</v>
       </c>
-      <c r="T220">
+      <c r="T220" s="4">
         <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U220">
+      <c r="U220" s="4">
         <f t="shared" si="11"/>
         <v>0.32377049180327871</v>
       </c>
@@ -18307,7 +18311,7 @@
       <c r="O221">
         <v>44</v>
       </c>
-      <c r="P221">
+      <c r="P221" s="4">
         <v>0.30199999999999999</v>
       </c>
       <c r="Q221">
@@ -18320,11 +18324,11 @@
         <f t="shared" si="9"/>
         <v>14.66</v>
       </c>
-      <c r="T221">
+      <c r="T221" s="4">
         <f t="shared" si="10"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U221">
+      <c r="U221" s="4">
         <f t="shared" si="11"/>
         <v>0.24032786885245902</v>
       </c>
@@ -18375,7 +18379,7 @@
       <c r="O222">
         <v>44</v>
       </c>
-      <c r="P222">
+      <c r="P222" s="4">
         <v>0.13300000000000001</v>
       </c>
       <c r="Q222">
@@ -18388,16 +18392,17 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T222">
+      <c r="T222" s="4">
         <f t="shared" si="10"/>
         <v>0.6428571428571429</v>
       </c>
-      <c r="U222">
+      <c r="U222" s="4">
         <f t="shared" si="11"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>